--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="326">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -987,6 +987,21 @@
   </si>
   <si>
     <t>BLAAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INALECSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTOVIEJO </t>
+  </si>
+  <si>
+    <t>INALECSA</t>
+  </si>
+  <si>
+    <t>BABAHOYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTECRISTI </t>
   </si>
 </sst>
 </file>
@@ -5373,6 +5388,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -5381,22 +5412,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9120,6 +9135,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -9128,22 +9159,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13341,6 +13356,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -13349,22 +13380,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17492,6 +17507,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -17500,22 +17531,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22045,6 +22060,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -22053,22 +22084,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22079,15 +22094,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
@@ -22331,11 +22346,21 @@
       <c r="I5" s="3"/>
       <c r="J5" s="39"/>
       <c r="K5" s="40"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="40"/>
+      <c r="M5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="P5" s="39">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>310</v>
+      </c>
       <c r="S5" s="2">
         <v>45295</v>
       </c>
@@ -22383,11 +22408,19 @@
       <c r="O6" s="3"/>
       <c r="P6" s="39"/>
       <c r="Q6" s="40"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="S6" s="2">
+        <v>45295</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="V6" s="39"/>
-      <c r="W6" s="40"/>
+      <c r="W6" s="40">
+        <v>350</v>
+      </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -22968,11 +23001,11 @@
       <c r="O27" s="43"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="18">
         <f>SUM(Q4:Q26)</f>
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="S27" s="43" t="s">
         <v>34</v>
@@ -22985,7 +23018,7 @@
       </c>
       <c r="W27" s="18">
         <f>SUM(W4:W26)</f>
-        <v>290</v>
+        <v>640</v>
       </c>
       <c r="Y27" s="43" t="s">
         <v>34</v>
@@ -23146,11 +23179,19 @@
       <c r="K33" s="40">
         <v>140</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="M33" s="2">
+        <v>45296</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="P33" s="39"/>
-      <c r="Q33" s="40"/>
+      <c r="Q33" s="40">
+        <v>250</v>
+      </c>
       <c r="S33" s="2">
         <v>45295</v>
       </c>
@@ -23690,7 +23731,7 @@
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S56" s="43" t="s">
         <v>34</v>
@@ -24490,7 +24531,7 @@
         <v>190</v>
       </c>
       <c r="F101" s="21" t="str">
-        <f t="shared" ref="F100:F112" si="1">VLOOKUP(G101,$C$100:$D$112,2,0)</f>
+        <f t="shared" ref="F101:F112" si="1">VLOOKUP(G101,$C$100:$D$112,2,0)</f>
         <v>PTO 0223</v>
       </c>
       <c r="G101" s="22">
@@ -24559,11 +24600,11 @@
       </c>
       <c r="F103" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>PZQ 0360</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -24616,7 +24657,7 @@
       </c>
       <c r="C105" s="20">
         <f>P27</f>
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>2</v>
@@ -24626,11 +24667,11 @@
       </c>
       <c r="F105" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>AAY 0116</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -24660,11 +24701,11 @@
       </c>
       <c r="F106" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>GLL 0927</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -24726,7 +24767,7 @@
         <v>88</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="0"/>
@@ -24868,6 +24909,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -24876,24 +24935,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="328">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1002,6 +1002,12 @@
   </si>
   <si>
     <t xml:space="preserve">MONTECRISTI </t>
+  </si>
+  <si>
+    <t>RANSA</t>
+  </si>
+  <si>
+    <t>GLL 0919</t>
   </si>
 </sst>
 </file>
@@ -22094,8 +22100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G113"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22341,11 +22347,19 @@
       <c r="E5" s="40">
         <v>140</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
+      <c r="K5" s="40">
+        <v>580</v>
+      </c>
       <c r="M5" s="2">
         <v>45296</v>
       </c>
@@ -22421,11 +22435,19 @@
       <c r="W6" s="40">
         <v>350</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
+      <c r="Y6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="AB6" s="39"/>
-      <c r="AC6" s="40"/>
+      <c r="AC6" s="40">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -22992,7 +23014,7 @@
       </c>
       <c r="K27" s="18">
         <f>SUM(K4:K26)</f>
-        <v>200</v>
+        <v>780</v>
       </c>
       <c r="M27" s="43" t="s">
         <v>34</v>
@@ -23031,7 +23053,7 @@
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>780</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -23209,26 +23231,60 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="E34" s="40">
+        <v>200</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="39">
+        <v>150</v>
+      </c>
+      <c r="K34" s="40">
+        <v>180</v>
+      </c>
+      <c r="M34" s="2">
+        <v>45296</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="P34" s="39"/>
-      <c r="Q34" s="40"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="Q34" s="40">
+        <v>75</v>
+      </c>
+      <c r="S34" s="2">
+        <v>45296</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="V34" s="39"/>
-      <c r="W34" s="40"/>
+      <c r="W34" s="40">
+        <v>200</v>
+      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -23236,21 +23292,39 @@
       <c r="C35" s="3"/>
       <c r="D35" s="39"/>
       <c r="E35" s="40"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="G35" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
+      <c r="K35" s="40">
+        <v>200</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="40"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="40"/>
+      <c r="S35" s="2">
+        <v>45298</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="V35" s="39">
+        <v>100</v>
+      </c>
+      <c r="W35" s="40">
+        <v>580</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -23705,7 +23779,7 @@
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="G56" s="43" t="s">
         <v>34</v>
@@ -23714,11 +23788,11 @@
       <c r="I56" s="43"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K33:K55)</f>
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="M56" s="43" t="s">
         <v>34</v>
@@ -23731,7 +23805,7 @@
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="S56" s="43" t="s">
         <v>34</v>
@@ -23740,11 +23814,11 @@
       <c r="U56" s="43"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W56" s="18">
         <f>SUM(W33:W55)</f>
-        <v>110</v>
+        <v>890</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -23971,11 +24045,21 @@
       <c r="O66" s="3"/>
       <c r="P66" s="39"/>
       <c r="Q66" s="40"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="40"/>
+      <c r="S66" s="2">
+        <v>45296</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="V66" s="39">
+        <v>140</v>
+      </c>
+      <c r="W66" s="40">
+        <v>140</v>
+      </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
@@ -24464,11 +24548,11 @@
       <c r="U87" s="43"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>720</v>
+        <v>860</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24496,12 +24580,13 @@
       <c r="E100" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F100" s="21" t="s">
-        <v>0</v>
+      <c r="F100" s="21" t="str">
+        <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
+        <v>PZQ 0360</v>
       </c>
       <c r="G100" s="22">
-        <f t="shared" ref="G100:G112" si="0">LARGE($C$100:$C$112,A100)</f>
-        <v>290</v>
+        <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
+        <v>340</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -24530,12 +24615,11 @@
       <c r="E101" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F101" s="21" t="str">
-        <f t="shared" ref="F101:F112" si="1">VLOOKUP(G101,$C$100:$D$112,2,0)</f>
-        <v>PTO 0223</v>
+      <c r="F101" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="G101" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="H101" s="19"/>
@@ -24565,13 +24649,12 @@
       <c r="E102" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="21" t="str">
+      <c r="F102" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>AFU 0919</v>
-      </c>
-      <c r="G102" s="22">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="31" t="s">
@@ -24590,7 +24673,7 @@
       </c>
       <c r="C103" s="20">
         <f>J56</f>
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>36</v>
@@ -24599,12 +24682,12 @@
         <v>83</v>
       </c>
       <c r="F103" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>GBN 8358</v>
-      </c>
-      <c r="G103" s="22">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -24632,12 +24715,13 @@
       <c r="E104" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F104" s="21" t="s">
-        <v>316</v>
+      <c r="F104" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>AFU 0919</v>
       </c>
       <c r="G104" s="22">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -24666,12 +24750,12 @@
         <v>85</v>
       </c>
       <c r="F105" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GBN 8358</v>
+      </c>
+      <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>PZQ 0360</v>
-      </c>
-      <c r="G105" s="22">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -24691,7 +24775,7 @@
       </c>
       <c r="C106" s="20">
         <f>V56</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>38</v>
@@ -24700,12 +24784,12 @@
         <v>86</v>
       </c>
       <c r="F106" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PCS 1771</v>
+      </c>
+      <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>AAY 0116</v>
-      </c>
-      <c r="G106" s="22">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -24734,11 +24818,11 @@
         <v>87</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="G107" s="22">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -24766,12 +24850,13 @@
       <c r="E108" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="21" t="s">
-        <v>36</v>
+      <c r="F108" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>AAY 0116</v>
       </c>
       <c r="G108" s="22">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="31" t="s">
@@ -24798,12 +24883,13 @@
       <c r="E109" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>65</v>
+      <c r="F109" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>POS 0267</v>
       </c>
       <c r="G109" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="31" t="s">
@@ -24831,11 +24917,11 @@
         <v>90</v>
       </c>
       <c r="F110" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GBP 3078</v>
+      </c>
+      <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>PCS 1771</v>
-      </c>
-      <c r="G110" s="22">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H110" s="19"/>
@@ -24855,7 +24941,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>170</v>
@@ -24867,7 +24953,7 @@
         <v>64</v>
       </c>
       <c r="G111" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H111" s="19"/>
@@ -24896,11 +24982,11 @@
         <v>92</v>
       </c>
       <c r="F112" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GSB 3779</v>
+      </c>
+      <c r="G112" s="22">
         <f t="shared" si="1"/>
-        <v>GSB 3779</v>
-      </c>
-      <c r="G112" s="22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="331">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1007,7 +1007,16 @@
     <t>RANSA</t>
   </si>
   <si>
-    <t>GLL 0919</t>
+    <t>unilwver</t>
+  </si>
+  <si>
+    <t>blaas uio</t>
+  </si>
+  <si>
+    <t>blass</t>
+  </si>
+  <si>
+    <t>cuenca</t>
   </si>
 </sst>
 </file>
@@ -5394,6 +5403,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -5402,22 +5427,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9141,6 +9150,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -9149,22 +9174,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13362,6 +13371,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -13370,22 +13395,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17513,6 +17522,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -17521,22 +17546,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22066,6 +22075,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -22074,22 +22099,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22407,21 +22416,41 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="A6" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="39">
+        <v>100</v>
+      </c>
+      <c r="E6" s="40">
+        <v>400</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="39"/>
       <c r="K6" s="40"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="40"/>
+      <c r="M6" s="2">
+        <v>45299</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="39">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>140</v>
+      </c>
       <c r="S6" s="2">
         <v>45295</v>
       </c>
@@ -22465,11 +22494,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="40"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
+      <c r="S7" s="2">
+        <v>45299</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="39">
+        <v>150</v>
+      </c>
+      <c r="W7" s="40">
+        <v>150</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -22997,11 +23036,11 @@
       <c r="C27" s="43"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>290</v>
+        <v>690</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>34</v>
@@ -23023,11 +23062,11 @@
       <c r="O27" s="43"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="Q27" s="18">
         <f>SUM(Q4:Q26)</f>
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="S27" s="43" t="s">
         <v>34</v>
@@ -23036,11 +23075,11 @@
       <c r="U27" s="43"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="W27" s="18">
         <f>SUM(W4:W26)</f>
-        <v>640</v>
+        <v>790</v>
       </c>
       <c r="Y27" s="43" t="s">
         <v>34</v>
@@ -23287,11 +23326,21 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
+      <c r="A35" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="39">
+        <v>150</v>
+      </c>
+      <c r="E35" s="40">
+        <v>150</v>
+      </c>
       <c r="G35" s="2">
         <v>45296</v>
       </c>
@@ -23305,11 +23354,21 @@
       <c r="K35" s="40">
         <v>200</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="40"/>
+      <c r="M35" s="2">
+        <v>45634</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="39">
+        <v>160</v>
+      </c>
+      <c r="Q35" s="40">
+        <v>200</v>
+      </c>
       <c r="S35" s="2">
         <v>45298</v>
       </c>
@@ -23332,11 +23391,21 @@
       <c r="C36" s="3"/>
       <c r="D36" s="39"/>
       <c r="E36" s="40"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
+      <c r="G36" s="2">
+        <v>45299</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="39">
+        <v>140</v>
+      </c>
+      <c r="K36" s="40">
+        <v>140</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -23775,11 +23844,11 @@
       <c r="C56" s="43"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="G56" s="43" t="s">
         <v>34</v>
@@ -23788,11 +23857,11 @@
       <c r="I56" s="43"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K33:K55)</f>
-        <v>520</v>
+        <v>660</v>
       </c>
       <c r="M56" s="43" t="s">
         <v>34</v>
@@ -23801,11 +23870,11 @@
       <c r="O56" s="43"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="S56" s="43" t="s">
         <v>34</v>
@@ -23993,11 +24062,21 @@
       <c r="C65" s="3"/>
       <c r="D65" s="39"/>
       <c r="E65" s="40"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="40"/>
+      <c r="G65" s="2">
+        <v>45299</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="39">
+        <v>100</v>
+      </c>
+      <c r="K65" s="40">
+        <v>100</v>
+      </c>
       <c r="M65" s="2">
         <v>45295</v>
       </c>
@@ -24040,11 +24119,21 @@
       <c r="I66" s="3"/>
       <c r="J66" s="39"/>
       <c r="K66" s="40"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="40"/>
+      <c r="M66" s="2">
+        <v>45299</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P66" s="39">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="40">
+        <v>100</v>
+      </c>
       <c r="S66" s="2">
         <v>45296</v>
       </c>
@@ -24077,11 +24166,21 @@
       <c r="O67" s="3"/>
       <c r="P67" s="39"/>
       <c r="Q67" s="40"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="40"/>
+      <c r="S67" s="2">
+        <v>45299</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="V67" s="39">
+        <v>100</v>
+      </c>
+      <c r="W67" s="40">
+        <v>100</v>
+      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
@@ -24522,11 +24621,11 @@
       <c r="I87" s="43"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="M87" s="43" t="s">
         <v>34</v>
@@ -24535,11 +24634,11 @@
       <c r="O87" s="43"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q87" s="18">
         <f>SUM(Q64:Q86)</f>
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="S87" s="43" t="s">
         <v>34</v>
@@ -24548,11 +24647,11 @@
       <c r="U87" s="43"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>860</v>
+        <v>960</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24572,7 +24671,7 @@
       </c>
       <c r="C100" s="20">
         <f>V27</f>
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>3</v>
@@ -24580,13 +24679,12 @@
       <c r="E100" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F100" s="21" t="str">
-        <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>PZQ 0360</v>
+      <c r="F100" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="G100" s="22">
-        <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>340</v>
+        <f t="shared" ref="G100:G112" si="0">LARGE($C$100:$C$112,A100)</f>
+        <v>440</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -24615,12 +24713,13 @@
       <c r="E101" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F101" s="21" t="s">
-        <v>0</v>
+      <c r="F101" s="21" t="str">
+        <f t="shared" ref="F100:F112" si="1">VLOOKUP(G101,$C$100:$D$112,2,0)</f>
+        <v>PTO 0223</v>
       </c>
       <c r="G101" s="22">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <f t="shared" si="0"/>
+        <v>440</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -24641,7 +24740,7 @@
       </c>
       <c r="C102" s="20">
         <f>D27</f>
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
@@ -24649,12 +24748,13 @@
       <c r="E102" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="21" t="s">
-        <v>327</v>
+      <c r="F102" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>GLL 0927</v>
       </c>
       <c r="G102" s="22">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <f t="shared" si="0"/>
+        <v>430</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="31" t="s">
@@ -24673,7 +24773,7 @@
       </c>
       <c r="C103" s="20">
         <f>J56</f>
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>36</v>
@@ -24682,12 +24782,12 @@
         <v>83</v>
       </c>
       <c r="F103" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>PAB 2383</v>
+      </c>
+      <c r="G103" s="22">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
-      </c>
-      <c r="G103" s="22">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -24707,7 +24807,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -24716,12 +24816,12 @@
         <v>84</v>
       </c>
       <c r="F104" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>GBN 8358</v>
+      </c>
+      <c r="G104" s="22">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
-      </c>
-      <c r="G104" s="22">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -24741,7 +24841,7 @@
       </c>
       <c r="C105" s="20">
         <f>P27</f>
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>2</v>
@@ -24750,12 +24850,12 @@
         <v>85</v>
       </c>
       <c r="F105" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>AFU 0919</v>
+      </c>
+      <c r="G105" s="22">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
-      </c>
-      <c r="G105" s="22">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -24784,12 +24884,12 @@
         <v>86</v>
       </c>
       <c r="F106" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>POS 0267</v>
+      </c>
+      <c r="G106" s="22">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
-      </c>
-      <c r="G106" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -24809,7 +24909,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -24817,11 +24917,12 @@
       <c r="E107" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="21" t="s">
-        <v>316</v>
+      <c r="F107" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>PCS 1771</v>
       </c>
       <c r="G107" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H107" s="19"/>
@@ -24842,7 +24943,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -24850,13 +24951,12 @@
       <c r="E108" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="21" t="str">
+      <c r="F108" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" s="22">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
-      </c>
-      <c r="G108" s="22">
-        <f t="shared" si="1"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="31" t="s">
@@ -24883,13 +24983,12 @@
       <c r="E109" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="21" t="str">
+      <c r="F109" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="G109" s="22">
         <f t="shared" si="0"/>
-        <v>POS 0267</v>
-      </c>
-      <c r="G109" s="22">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="31" t="s">
@@ -24908,7 +25007,7 @@
       </c>
       <c r="C110" s="20">
         <f>P87</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>66</v>
@@ -24916,13 +25015,12 @@
       <c r="E110" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F110" s="21" t="str">
+      <c r="F110" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" s="22">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
-      </c>
-      <c r="G110" s="22">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="31" t="s">
@@ -24941,7 +25039,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>170</v>
@@ -24949,12 +25047,13 @@
       <c r="E111" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F111" s="21" t="s">
-        <v>64</v>
+      <c r="F111" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>AAY 0116</v>
       </c>
       <c r="G111" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="H111" s="19"/>
       <c r="L111" s="33" t="s">
@@ -24982,11 +25081,11 @@
         <v>92</v>
       </c>
       <c r="F112" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>GIR 0872</v>
+      </c>
+      <c r="G112" s="22">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
-      </c>
-      <c r="G112" s="22">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -24995,16 +25094,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -25013,14 +25110,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="331">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -5403,6 +5403,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -5411,22 +5427,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9150,6 +9150,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -9158,22 +9174,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13371,6 +13371,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -13379,22 +13395,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17522,6 +17522,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -17530,22 +17546,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22075,6 +22075,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -22083,22 +22099,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22509,11 +22509,21 @@
       <c r="W7" s="40">
         <v>150</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="40"/>
+      <c r="Y7" s="2">
+        <v>45299</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB7" s="39">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="40">
+        <v>580</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -23088,11 +23098,11 @@
       <c r="AA27" s="43"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>855</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -23386,11 +23396,21 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
+      <c r="A36" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="39">
+        <v>150</v>
+      </c>
+      <c r="E36" s="40">
+        <v>150</v>
+      </c>
       <c r="G36" s="2">
         <v>45299</v>
       </c>
@@ -23406,11 +23426,21 @@
       <c r="K36" s="40">
         <v>140</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="40"/>
+      <c r="M36" s="2">
+        <v>45301</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="39">
+        <v>140</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>140</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -23844,11 +23874,11 @@
       <c r="C56" s="43"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>490</v>
+        <v>640</v>
       </c>
       <c r="G56" s="43" t="s">
         <v>34</v>
@@ -23870,11 +23900,11 @@
       <c r="O56" s="43"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>525</v>
+        <v>665</v>
       </c>
       <c r="S56" s="43" t="s">
         <v>34</v>
@@ -24161,11 +24191,21 @@
       <c r="I67" s="3"/>
       <c r="J67" s="39"/>
       <c r="K67" s="40"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="40"/>
+      <c r="M67" s="2">
+        <v>45301</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P67" s="39">
+        <v>160</v>
+      </c>
+      <c r="Q67" s="40">
+        <v>160</v>
+      </c>
       <c r="S67" s="2">
         <v>45299</v>
       </c>
@@ -24634,11 +24674,11 @@
       <c r="O87" s="43"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="Q87" s="18">
         <f>SUM(Q64:Q86)</f>
-        <v>830</v>
+        <v>990</v>
       </c>
       <c r="S87" s="43" t="s">
         <v>34</v>
@@ -24679,12 +24719,13 @@
       <c r="E100" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F100" s="21" t="s">
-        <v>170</v>
+      <c r="F100" s="21" t="str">
+        <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
+        <v>AFU 0919</v>
       </c>
       <c r="G100" s="22">
-        <f t="shared" ref="G100:G112" si="0">LARGE($C$100:$C$112,A100)</f>
-        <v>440</v>
+        <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
+        <v>510</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -24713,12 +24754,11 @@
       <c r="E101" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F101" s="21" t="str">
-        <f t="shared" ref="F100:F112" si="1">VLOOKUP(G101,$C$100:$D$112,2,0)</f>
-        <v>PTO 0223</v>
+      <c r="F101" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="G101" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>440</v>
       </c>
       <c r="H101" s="19"/>
@@ -24748,13 +24788,12 @@
       <c r="E102" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="21" t="str">
+      <c r="F102" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>GLL 0927</v>
-      </c>
-      <c r="G102" s="22">
-        <f t="shared" si="0"/>
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="31" t="s">
@@ -24782,12 +24821,12 @@
         <v>83</v>
       </c>
       <c r="F103" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>PAB 2383</v>
-      </c>
-      <c r="G103" s="22">
-        <f t="shared" si="0"/>
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -24807,7 +24846,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -24816,12 +24855,12 @@
         <v>84</v>
       </c>
       <c r="F104" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GLL 0927</v>
+      </c>
+      <c r="G104" s="22">
         <f t="shared" si="1"/>
-        <v>GBN 8358</v>
-      </c>
-      <c r="G104" s="22">
-        <f t="shared" si="0"/>
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -24850,12 +24889,12 @@
         <v>85</v>
       </c>
       <c r="F105" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PAB 2383</v>
+      </c>
+      <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>AFU 0919</v>
-      </c>
-      <c r="G105" s="22">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -24884,12 +24923,12 @@
         <v>86</v>
       </c>
       <c r="F106" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GBN 8358</v>
+      </c>
+      <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>POS 0267</v>
-      </c>
-      <c r="G106" s="22">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -24909,7 +24948,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -24918,12 +24957,12 @@
         <v>87</v>
       </c>
       <c r="F107" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GSB 3779</v>
+      </c>
+      <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>PCS 1771</v>
-      </c>
-      <c r="G107" s="22">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -24952,11 +24991,11 @@
         <v>88</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="G108" s="22">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="31" t="s">
@@ -24984,10 +25023,10 @@
         <v>89</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>316</v>
+        <v>65</v>
       </c>
       <c r="G109" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H109" s="19"/>
@@ -25007,7 +25046,7 @@
       </c>
       <c r="C110" s="20">
         <f>P87</f>
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>66</v>
@@ -25015,12 +25054,13 @@
       <c r="E110" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F110" s="21" t="s">
-        <v>37</v>
+      <c r="F110" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PCS 1771</v>
       </c>
       <c r="G110" s="22">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="31" t="s">
@@ -25048,11 +25088,11 @@
         <v>91</v>
       </c>
       <c r="F111" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>AAY 0116</v>
+      </c>
+      <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>AAY 0116</v>
-      </c>
-      <c r="G111" s="22">
-        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="H111" s="19"/>
@@ -25072,7 +25112,7 @@
       </c>
       <c r="C112" s="41">
         <f>AB27</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>316</v>
@@ -25081,11 +25121,11 @@
         <v>92</v>
       </c>
       <c r="F112" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GIR 0872</v>
+      </c>
+      <c r="G112" s="22">
         <f t="shared" si="1"/>
-        <v>GIR 0872</v>
-      </c>
-      <c r="G112" s="22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -25094,6 +25134,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -25102,24 +25160,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="333">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1017,6 +1017,12 @@
   </si>
   <si>
     <t>cuenca</t>
+  </si>
+  <si>
+    <t>ROSADO S</t>
+  </si>
+  <si>
+    <t>PYCCA</t>
   </si>
 </sst>
 </file>
@@ -5403,6 +5409,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -5411,22 +5433,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9150,6 +9156,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -9158,22 +9180,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13371,6 +13377,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -13379,22 +13401,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17522,6 +17528,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -17530,22 +17552,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22075,6 +22081,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -22083,22 +22105,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22109,7 +22115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
       <selection activeCell="E100" sqref="E100:G112"/>
     </sheetView>
   </sheetViews>
@@ -22489,11 +22495,21 @@
       <c r="I7" s="3"/>
       <c r="J7" s="39"/>
       <c r="K7" s="40"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="M7" s="2">
+        <v>45301</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="39">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>200</v>
+      </c>
       <c r="S7" s="2">
         <v>45299</v>
       </c>
@@ -22501,7 +22517,7 @@
         <v>63</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="V7" s="39">
         <v>150</v>
@@ -22510,7 +22526,7 @@
         <v>150</v>
       </c>
       <c r="Y7" s="2">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>93</v>
@@ -22541,16 +22557,36 @@
       <c r="O8" s="3"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="40"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="40"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="40"/>
+      <c r="S8" s="2">
+        <v>45301</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="V8" s="39">
+        <v>150</v>
+      </c>
+      <c r="W8" s="40">
+        <v>150</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>45301</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="39">
+        <v>140</v>
+      </c>
+      <c r="AC8" s="40">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -23072,11 +23108,11 @@
       <c r="O27" s="43"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q27" s="18">
         <f>SUM(Q4:Q26)</f>
-        <v>590</v>
+        <v>790</v>
       </c>
       <c r="S27" s="43" t="s">
         <v>34</v>
@@ -23085,11 +23121,11 @@
       <c r="U27" s="43"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
-        <v>440</v>
+        <v>590</v>
       </c>
       <c r="W27" s="18">
         <f>SUM(W4:W26)</f>
-        <v>790</v>
+        <v>940</v>
       </c>
       <c r="Y27" s="43" t="s">
         <v>34</v>
@@ -23098,11 +23134,11 @@
       <c r="AA27" s="43"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>1435</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -23453,16 +23489,36 @@
       <c r="C37" s="16"/>
       <c r="D37" s="39"/>
       <c r="E37" s="40"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="40"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="40"/>
+      <c r="G37" s="12">
+        <v>45301</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="39">
+        <v>160</v>
+      </c>
+      <c r="K37" s="40">
+        <v>160</v>
+      </c>
+      <c r="M37" s="2">
+        <v>45301</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="39">
+        <v>140</v>
+      </c>
+      <c r="Q37" s="40">
+        <v>140</v>
+      </c>
       <c r="S37" s="2"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -23887,11 +23943,11 @@
       <c r="I56" s="43"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K33:K55)</f>
-        <v>660</v>
+        <v>820</v>
       </c>
       <c r="M56" s="43" t="s">
         <v>34</v>
@@ -23900,11 +23956,11 @@
       <c r="O56" s="43"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>665</v>
+        <v>805</v>
       </c>
       <c r="S56" s="43" t="s">
         <v>34</v>
@@ -24035,11 +24091,21 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
+      <c r="A64" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="39">
+        <v>150</v>
+      </c>
+      <c r="E64" s="40">
+        <v>180</v>
+      </c>
       <c r="G64" s="2">
         <v>45294</v>
       </c>
@@ -24144,11 +24210,21 @@
       <c r="C66" s="3"/>
       <c r="D66" s="39"/>
       <c r="E66" s="40"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="40"/>
+      <c r="G66" s="2">
+        <v>45301</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="39">
+        <v>150</v>
+      </c>
+      <c r="K66" s="40">
+        <v>150</v>
+      </c>
       <c r="M66" s="2">
         <v>45299</v>
       </c>
@@ -24648,11 +24724,11 @@
       <c r="C87" s="43"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G87" s="43" t="s">
         <v>34</v>
@@ -24661,11 +24737,11 @@
       <c r="I87" s="43"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>620</v>
+        <v>770</v>
       </c>
       <c r="M87" s="43" t="s">
         <v>34</v>
@@ -24711,7 +24787,7 @@
       </c>
       <c r="C100" s="20">
         <f>V27</f>
-        <v>440</v>
+        <v>590</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>3</v>
@@ -24719,13 +24795,12 @@
       <c r="E100" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F100" s="21" t="str">
-        <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>AFU 0919</v>
+      <c r="F100" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="G100" s="22">
-        <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>510</v>
+        <f t="shared" ref="G100:G112" si="0">LARGE($C$100:$C$112,A100)</f>
+        <v>590</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -24754,12 +24829,13 @@
       <c r="E101" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F101" s="21" t="s">
-        <v>170</v>
+      <c r="F101" s="21" t="str">
+        <f t="shared" ref="F100:F112" si="1">VLOOKUP(G101,$C$100:$D$112,2,0)</f>
+        <v>PTO 0223</v>
       </c>
       <c r="G101" s="22">
-        <f t="shared" si="1"/>
-        <v>440</v>
+        <f t="shared" si="0"/>
+        <v>590</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -24788,12 +24864,13 @@
       <c r="E102" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="21" t="s">
-        <v>35</v>
+      <c r="F102" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>GBN 8358</v>
       </c>
       <c r="G102" s="22">
-        <f t="shared" si="1"/>
-        <v>440</v>
+        <f t="shared" si="0"/>
+        <v>540</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="31" t="s">
@@ -24812,7 +24889,7 @@
       </c>
       <c r="C103" s="20">
         <f>J56</f>
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>36</v>
@@ -24821,12 +24898,12 @@
         <v>83</v>
       </c>
       <c r="F103" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>AFU 0919</v>
+      </c>
+      <c r="G103" s="22">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
-      </c>
-      <c r="G103" s="22">
-        <f t="shared" si="1"/>
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -24846,7 +24923,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -24854,13 +24931,12 @@
       <c r="E104" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F104" s="21" t="str">
+      <c r="F104" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="22">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
-      </c>
-      <c r="G104" s="22">
-        <f t="shared" si="1"/>
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -24880,7 +24956,7 @@
       </c>
       <c r="C105" s="20">
         <f>P27</f>
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>2</v>
@@ -24889,12 +24965,12 @@
         <v>85</v>
       </c>
       <c r="F105" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>GSB 3779</v>
+      </c>
+      <c r="G105" s="22">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
-      </c>
-      <c r="G105" s="22">
-        <f t="shared" si="1"/>
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -24922,13 +24998,12 @@
       <c r="E106" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="21" t="str">
+      <c r="F106" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="G106" s="22">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
-      </c>
-      <c r="G106" s="22">
-        <f t="shared" si="1"/>
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -24956,13 +25031,12 @@
       <c r="E107" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="21" t="str">
+      <c r="F107" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G107" s="22">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
-      </c>
-      <c r="G107" s="22">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -24982,7 +25056,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -24990,12 +25064,13 @@
       <c r="E108" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="21" t="s">
-        <v>316</v>
+      <c r="F108" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>PAB 2383</v>
       </c>
       <c r="G108" s="22">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>390</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="31" t="s">
@@ -25014,7 +25089,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -25022,12 +25097,13 @@
       <c r="E109" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>65</v>
+      <c r="F109" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>GBP 3078</v>
       </c>
       <c r="G109" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>350</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="31" t="s">
@@ -25055,11 +25131,11 @@
         <v>90</v>
       </c>
       <c r="F110" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>PCS 1771</v>
+      </c>
+      <c r="G110" s="22">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
-      </c>
-      <c r="G110" s="22">
-        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H110" s="19"/>
@@ -25088,11 +25164,11 @@
         <v>91</v>
       </c>
       <c r="F111" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>AAY 0116</v>
+      </c>
+      <c r="G111" s="22">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
-      </c>
-      <c r="G111" s="22">
-        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="H111" s="19"/>
@@ -25112,7 +25188,7 @@
       </c>
       <c r="C112" s="41">
         <f>AB27</f>
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>316</v>
@@ -25121,12 +25197,12 @@
         <v>92</v>
       </c>
       <c r="F112" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>GIR 0872</v>
+      </c>
+      <c r="G112" s="22">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
-      </c>
-      <c r="G112" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -25134,16 +25210,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -25152,14 +25226,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="334">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -1023,6 +1023,9 @@
   </si>
   <si>
     <t>PYCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">envapres </t>
   </si>
 </sst>
 </file>
@@ -5409,6 +5412,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -5417,22 +5436,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9156,6 +9159,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -9164,22 +9183,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13377,6 +13380,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -13385,22 +13404,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17528,6 +17531,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -17536,22 +17555,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22081,6 +22084,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -22089,22 +22108,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22115,8 +22118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G112"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22485,11 +22488,21 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="39">
+        <v>100</v>
+      </c>
+      <c r="E7" s="40">
+        <v>200</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -23082,11 +23095,11 @@
       <c r="C27" s="43"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>690</v>
+        <v>890</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>34</v>
@@ -24153,11 +24166,21 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="40"/>
+      <c r="A65" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="39">
+        <v>100</v>
+      </c>
+      <c r="E65" s="40">
+        <v>330</v>
+      </c>
       <c r="G65" s="2">
         <v>45299</v>
       </c>
@@ -24314,11 +24337,21 @@
       <c r="O68" s="3"/>
       <c r="P68" s="39"/>
       <c r="Q68" s="40"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="40"/>
+      <c r="S68" s="2">
+        <v>45302</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="V68" s="39">
+        <v>100</v>
+      </c>
+      <c r="W68" s="40">
+        <v>580</v>
+      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
@@ -24724,11 +24757,11 @@
       <c r="C87" s="43"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="G87" s="43" t="s">
         <v>34</v>
@@ -24763,11 +24796,11 @@
       <c r="U87" s="43"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>960</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24830,7 +24863,7 @@
         <v>190</v>
       </c>
       <c r="F101" s="21" t="str">
-        <f t="shared" ref="F100:F112" si="1">VLOOKUP(G101,$C$100:$D$112,2,0)</f>
+        <f t="shared" ref="F100:F113" si="1">VLOOKUP(G101,$C$100:$D$112,2,0)</f>
         <v>PTO 0223</v>
       </c>
       <c r="G101" s="22">
@@ -24856,7 +24889,7 @@
       </c>
       <c r="C102" s="20">
         <f>D27</f>
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
@@ -24864,9 +24897,8 @@
       <c r="E102" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>GBN 8358</v>
+      <c r="F102" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="0"/>
@@ -24899,11 +24931,11 @@
       </c>
       <c r="F103" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>AFU 0919</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -24931,12 +24963,13 @@
       <c r="E104" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F104" s="21" t="s">
-        <v>35</v>
+      <c r="F104" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>AFU 0919</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -24966,11 +24999,11 @@
       </c>
       <c r="F105" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>GSB 3779</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -24998,8 +25031,9 @@
       <c r="E106" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="21" t="s">
-        <v>316</v>
+      <c r="F106" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>GSB 3779</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="0"/>
@@ -25032,7 +25066,7 @@
         <v>87</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="0"/>
@@ -25064,13 +25098,12 @@
       <c r="E108" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>PAB 2383</v>
+      <c r="F108" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="31" t="s">
@@ -25089,7 +25122,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -25132,11 +25165,11 @@
       </c>
       <c r="F110" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>PCS 1771</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="31" t="s">
@@ -25155,7 +25188,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>170</v>
@@ -25165,11 +25198,11 @@
       </c>
       <c r="F111" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>AAY 0116</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G111" s="22">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H111" s="19"/>
       <c r="L111" s="33" t="s">
@@ -25198,11 +25231,11 @@
       </c>
       <c r="F112" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>GIR 0872</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G112" s="22">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -25210,6 +25243,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -25218,24 +25269,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="318">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -964,7 +964,19 @@
     <t>WHIEPOOL</t>
   </si>
   <si>
-    <t>GBP 9036</t>
+    <t>FAVALLE</t>
+  </si>
+  <si>
+    <t>MACHALA</t>
+  </si>
+  <si>
+    <t>UNILEVR</t>
+  </si>
+  <si>
+    <t>DIFARE</t>
+  </si>
+  <si>
+    <t>UNILEVE</t>
   </si>
 </sst>
 </file>
@@ -5358,6 +5370,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -5366,22 +5394,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9105,6 +9117,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -9113,22 +9141,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13326,6 +13338,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -13334,22 +13362,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17477,6 +17489,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -17485,22 +17513,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17512,12 +17524,13 @@
   <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
@@ -18287,16 +18300,36 @@
       <c r="E12" s="5">
         <v>160</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
+      <c r="G12" s="11">
+        <v>45314</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J12" s="4">
+        <v>100</v>
+      </c>
+      <c r="K12" s="5">
+        <v>100</v>
+      </c>
+      <c r="M12" s="11">
+        <v>45314</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="P12" s="4">
+        <v>140</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>140</v>
+      </c>
       <c r="S12" s="11">
         <v>45309</v>
       </c>
@@ -18329,11 +18362,21 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="11">
+        <v>45314</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -18744,11 +18787,11 @@
       <c r="C27" s="42"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
-        <v>1210</v>
+        <v>1310</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>34</v>
@@ -18757,11 +18800,11 @@
       <c r="I27" s="42"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
-        <v>995</v>
+        <v>1095</v>
       </c>
       <c r="K27" s="18">
         <f>SUM(K4:K26)</f>
-        <v>2015</v>
+        <v>2115</v>
       </c>
       <c r="M27" s="42" t="s">
         <v>34</v>
@@ -18770,11 +18813,11 @@
       <c r="O27" s="42"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
-        <v>955</v>
+        <v>1095</v>
       </c>
       <c r="Q27" s="18">
         <f>SUM(Q4:Q26)</f>
-        <v>1355</v>
+        <v>1495</v>
       </c>
       <c r="S27" s="42" t="s">
         <v>34</v>
@@ -19338,11 +19381,21 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
+      <c r="A40" s="13">
+        <v>45314</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="14">
+        <v>100</v>
+      </c>
+      <c r="E40" s="15">
+        <v>100</v>
+      </c>
       <c r="G40" s="13">
         <v>45310</v>
       </c>
@@ -19400,11 +19453,21 @@
       <c r="I41" s="16"/>
       <c r="J41" s="4"/>
       <c r="K41" s="5"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="5"/>
+      <c r="M41" s="11">
+        <v>45314</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="4">
+        <v>140</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>140</v>
+      </c>
       <c r="S41" s="11">
         <v>45309</v>
       </c>
@@ -19748,11 +19811,11 @@
       <c r="C56" s="42"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G56" s="42" t="s">
         <v>34</v>
@@ -19774,11 +19837,11 @@
       <c r="O56" s="42"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>1265</v>
+        <v>1405</v>
       </c>
       <c r="S56" s="42" t="s">
         <v>34</v>
@@ -20427,11 +20490,21 @@
       <c r="K72" s="5">
         <v>115</v>
       </c>
-      <c r="M72" s="11"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="5"/>
+      <c r="M72" s="11">
+        <v>45314</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="P72" s="4">
+        <v>140</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>140</v>
+      </c>
       <c r="S72" s="11">
         <v>45309</v>
       </c>
@@ -20464,21 +20537,41 @@
       <c r="E73" s="5">
         <v>170</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="5"/>
+      <c r="G73" s="11">
+        <v>45314</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J73" s="4">
+        <v>150</v>
+      </c>
+      <c r="K73" s="5">
+        <v>150</v>
+      </c>
       <c r="M73" s="11"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="5"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="5"/>
+      <c r="S73" s="11">
+        <v>45314</v>
+      </c>
+      <c r="T73" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="U73" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V73" s="4">
+        <v>150</v>
+      </c>
+      <c r="W73" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
@@ -20787,11 +20880,11 @@
       <c r="I87" s="42"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>930</v>
+        <v>1080</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>2140</v>
+        <v>2290</v>
       </c>
       <c r="M87" s="42" t="s">
         <v>34</v>
@@ -20800,11 +20893,11 @@
       <c r="O87" s="42"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
-        <v>965</v>
+        <v>1105</v>
       </c>
       <c r="Q87" s="18">
         <f>SUM(Q64:Q86)</f>
-        <v>1715</v>
+        <v>1855</v>
       </c>
       <c r="S87" s="42" t="s">
         <v>34</v>
@@ -20813,11 +20906,11 @@
       <c r="U87" s="42"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>940</v>
+        <v>1090</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>2640</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -20847,11 +20940,11 @@
       </c>
       <c r="F100" s="21" t="str">
         <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>PTO 0223</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G100" s="22">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>1210</v>
+        <v>1310</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -20872,7 +20965,7 @@
       </c>
       <c r="C101" s="20">
         <f>J27</f>
-        <v>995</v>
+        <v>1095</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>1</v>
@@ -20880,8 +20973,9 @@
       <c r="E101" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F101" s="21" t="s">
-        <v>0</v>
+      <c r="F101" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" si="1"/>
@@ -20906,7 +21000,7 @@
       </c>
       <c r="C102" s="20">
         <f>D27</f>
-        <v>1210</v>
+        <v>1310</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
@@ -20916,11 +21010,11 @@
       </c>
       <c r="F102" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="31" t="s">
@@ -20953,7 +21047,7 @@
       </c>
       <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>995</v>
+        <v>1095</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -20973,7 +21067,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -20981,13 +21075,12 @@
       <c r="E104" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F104" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+      <c r="F104" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="1"/>
-        <v>970</v>
+        <v>1095</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -21007,7 +21100,7 @@
       </c>
       <c r="C105" s="20">
         <f>P27</f>
-        <v>955</v>
+        <v>1095</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>2</v>
@@ -21017,11 +21110,11 @@
       </c>
       <c r="F105" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>965</v>
+        <v>1090</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -21051,11 +21144,11 @@
       </c>
       <c r="F106" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>955</v>
+        <v>1080</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -21075,7 +21168,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -21083,13 +21176,12 @@
       <c r="E107" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+      <c r="F107" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -21109,7 +21201,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>930</v>
+        <v>1080</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -21119,11 +21211,11 @@
       </c>
       <c r="F108" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="1"/>
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="31" t="s">
@@ -21150,12 +21242,13 @@
       <c r="E109" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>313</v>
+      <c r="F109" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GIR 0872</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" si="1"/>
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="31" t="s">
@@ -21174,7 +21267,7 @@
       </c>
       <c r="C110" s="20">
         <f>P87</f>
-        <v>965</v>
+        <v>1105</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>66</v>
@@ -21184,11 +21277,11 @@
       </c>
       <c r="F110" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="31" t="s">
@@ -21207,7 +21300,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>940</v>
+        <v>1090</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>170</v>
@@ -21217,11 +21310,11 @@
       </c>
       <c r="F111" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>GBP 8036</v>
       </c>
       <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="H111" s="19"/>
       <c r="L111" s="33" t="s">
@@ -21254,7 +21347,7 @@
       </c>
       <c r="G112" s="22">
         <f t="shared" si="1"/>
-        <v>760</v>
+        <v>860</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -21262,16 +21355,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -21280,14 +21371,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="184">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -700,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -747,129 +747,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -901,14 +785,6 @@
     <xf numFmtId="169" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -921,6 +797,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1301,56 +1181,56 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="M1" s="39" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="S1" s="39" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2358,11 +2238,11 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
         <v>800</v>
@@ -2371,11 +2251,11 @@
         <f>SUM(E4:E26)</f>
         <v>1030</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
         <v>1490</v>
@@ -2384,11 +2264,11 @@
         <f>SUM(K4:K26)</f>
         <v>2690</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
         <v>910</v>
@@ -2397,11 +2277,11 @@
         <f>SUM(Q4:Q26)</f>
         <v>1070</v>
       </c>
-      <c r="S27" s="40" t="s">
+      <c r="S27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
         <v>2570</v>
@@ -2412,56 +2292,56 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="G30" s="39" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="G30" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="M30" s="39" t="s">
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="M30" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="S30" s="39" t="s">
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="S30" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -3536,11 +3416,11 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
         <v>1740</v>
@@ -3549,11 +3429,11 @@
         <f>SUM(E33:E55)</f>
         <v>2320</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
         <v>2160</v>
@@ -3562,11 +3442,11 @@
         <f>SUM(K33:K55)</f>
         <v>3230</v>
       </c>
-      <c r="M56" s="40" t="s">
+      <c r="M56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
         <v>940</v>
@@ -3575,11 +3455,11 @@
         <f>SUM(Q33:Q55)</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="40" t="s">
+      <c r="S56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
         <v>1190</v>
@@ -3590,54 +3470,54 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="G61" s="39" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="G61" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="M61" s="39" t="s">
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="M61" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -4610,11 +4490,11 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
         <v>1680</v>
@@ -4623,11 +4503,11 @@
         <f>SUM(E64:E86)</f>
         <v>3470</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="G87" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
         <v>1990</v>
@@ -4636,11 +4516,11 @@
         <f>SUM(K64:K86)</f>
         <v>2680</v>
       </c>
-      <c r="M87" s="40" t="s">
+      <c r="M87" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
         <v>1440</v>
@@ -4649,11 +4529,11 @@
         <f>SUM(Q64:Q86)</f>
         <v>3500</v>
       </c>
-      <c r="S87" s="40" t="s">
+      <c r="S87" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
         <v>0</v>
@@ -4950,6 +4830,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -4958,22 +4854,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4984,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G112"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,74 +4873,74 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="M1" s="39" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="S1" s="39" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5454,7 +5334,7 @@
       <c r="D8" s="14">
         <v>90</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="25">
         <v>90</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -5836,7 +5716,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="5">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="16"/>
@@ -5903,7 +5783,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="5">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="16"/>
@@ -5937,7 +5817,7 @@
         <v>107</v>
       </c>
       <c r="AA14" s="16" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="AB14" s="4">
         <v>100</v>
@@ -5975,13 +5855,23 @@
         <v>100</v>
       </c>
       <c r="W15" s="5">
-        <v>570</v>
-      </c>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>45314</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>160</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>160</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -6281,24 +6171,24 @@
       <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
         <v>1410</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>1850</v>
-      </c>
-      <c r="G27" s="40" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
         <v>1095</v>
@@ -6307,11 +6197,11 @@
         <f>SUM(K4:K26)</f>
         <v>2115</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
         <v>1265</v>
@@ -6320,84 +6210,84 @@
         <f>SUM(Q4:Q26)</f>
         <v>1665</v>
       </c>
-      <c r="S27" s="40" t="s">
+      <c r="S27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
         <v>1310</v>
       </c>
       <c r="W27" s="18">
         <f>SUM(W4:W26)</f>
-        <v>3290</v>
-      </c>
-      <c r="Y27" s="40" t="s">
+        <v>3280</v>
+      </c>
+      <c r="Y27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>1030</v>
+        <v>1190</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>3835</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="G30" s="39" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="G30" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="M30" s="39" t="s">
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="M30" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="S30" s="39" t="s">
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="S30" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -7022,19 +6912,19 @@
       <c r="Q42" s="5">
         <v>200</v>
       </c>
-      <c r="S42" s="34">
+      <c r="S42" s="26">
         <v>45310</v>
       </c>
-      <c r="T42" s="34" t="s">
+      <c r="T42" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="34" t="s">
+      <c r="U42" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="35">
+      <c r="V42" s="27">
         <v>170</v>
       </c>
-      <c r="W42" s="35">
+      <c r="W42" s="27">
         <v>170</v>
       </c>
     </row>
@@ -7345,11 +7235,11 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
         <v>860</v>
@@ -7358,11 +7248,11 @@
         <f>SUM(E33:E55)</f>
         <v>1300</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
         <v>1070</v>
@@ -7371,11 +7261,11 @@
         <f>SUM(K33:K55)</f>
         <v>1700</v>
       </c>
-      <c r="M56" s="40" t="s">
+      <c r="M56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
         <v>1160</v>
@@ -7384,11 +7274,11 @@
         <f>SUM(Q33:Q55)</f>
         <v>1605</v>
       </c>
-      <c r="S56" s="40" t="s">
+      <c r="S56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
         <v>1150</v>
@@ -7399,56 +7289,56 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="G61" s="39" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="G61" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="M61" s="39" t="s">
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="M61" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="S61" s="39" t="s">
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="S61" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -7810,7 +7700,7 @@
       <c r="V68" s="4">
         <v>100</v>
       </c>
-      <c r="W68" s="36">
+      <c r="W68" s="28">
         <v>500</v>
       </c>
     </row>
@@ -8177,11 +8067,21 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
+      <c r="A75" s="11">
+        <v>45315</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4">
+        <v>130</v>
+      </c>
+      <c r="E75" s="5">
+        <v>130</v>
+      </c>
       <c r="G75" s="11"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
@@ -8441,24 +8341,24 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>1040</v>
+        <v>1170</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>2000</v>
-      </c>
-      <c r="G87" s="40" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G87" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
         <v>1180</v>
@@ -8467,11 +8367,11 @@
         <f>SUM(K64:K86)</f>
         <v>2870</v>
       </c>
-      <c r="M87" s="40" t="s">
+      <c r="M87" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
         <v>1275</v>
@@ -8480,11 +8380,11 @@
         <f>SUM(Q64:Q86)</f>
         <v>2025</v>
       </c>
-      <c r="S87" s="40" t="s">
+      <c r="S87" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
         <v>1190</v>
@@ -8494,15 +8394,16 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L99" s="25" t="s">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L99" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="M99" s="26" t="s">
+      <c r="M99" s="34" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="16"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -8530,14 +8431,15 @@
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
-      <c r="L100" s="27" t="s">
+      <c r="L100" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="M100" s="28" t="s">
+      <c r="M100" s="36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="16"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -8565,14 +8467,15 @@
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="19"/>
-      <c r="L101" s="29" t="s">
+      <c r="L101" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="M101" s="30" t="s">
+      <c r="M101" s="36" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="16"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -8598,14 +8501,15 @@
         <v>1275</v>
       </c>
       <c r="H102" s="19"/>
-      <c r="L102" s="29" t="s">
+      <c r="L102" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M102" s="30" t="s">
+      <c r="M102" s="36" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="16"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -8632,14 +8536,15 @@
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
-      <c r="L103" s="29" t="s">
+      <c r="L103" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="M103" s="30" t="s">
+      <c r="M103" s="36" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="16"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -8666,14 +8571,15 @@
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
-      <c r="L104" s="29" t="s">
+      <c r="L104" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M104" s="30" t="s">
+      <c r="M104" s="36" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="16"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -8690,24 +8596,24 @@
       <c r="E105" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F105" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+      <c r="F105" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
-      <c r="L105" s="29" t="s">
+      <c r="L105" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="M105" s="30" t="s">
+      <c r="M105" s="36" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="16"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7</v>
       </c>
@@ -8726,22 +8632,23 @@
       </c>
       <c r="F106" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
-      <c r="L106" s="29" t="s">
+      <c r="L106" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M106" s="30" t="s">
+      <c r="M106" s="36" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="16"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8</v>
       </c>
@@ -8760,22 +8667,23 @@
       </c>
       <c r="F107" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
-      <c r="L107" s="29" t="s">
+      <c r="L107" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M107" s="30" t="s">
+      <c r="M107" s="36" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="16"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9</v>
       </c>
@@ -8794,21 +8702,22 @@
       </c>
       <c r="F108" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="1"/>
-        <v>1095</v>
+        <v>1160</v>
       </c>
       <c r="H108" s="19"/>
-      <c r="L108" s="29" t="s">
+      <c r="L108" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M108" s="30" t="s">
+      <c r="M108" s="36" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="16"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10</v>
       </c>
@@ -8817,7 +8726,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>1040</v>
+        <v>1170</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -8827,21 +8736,22 @@
       </c>
       <c r="F109" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>1150</v>
       </c>
       <c r="H109" s="19"/>
-      <c r="L109" s="29" t="s">
+      <c r="L109" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M109" s="30" t="s">
+      <c r="M109" s="36" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="16"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
@@ -8860,21 +8770,22 @@
       </c>
       <c r="F110" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>1040</v>
+        <v>1095</v>
       </c>
       <c r="H110" s="19"/>
-      <c r="L110" s="29" t="s">
+      <c r="L110" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M110" s="30" t="s">
+      <c r="M110" s="36" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="16"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>12</v>
       </c>
@@ -8893,30 +8804,31 @@
       </c>
       <c r="F111" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 8036</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>1030</v>
+        <v>1070</v>
       </c>
       <c r="H111" s="19"/>
-      <c r="L111" s="31" t="s">
+      <c r="L111" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="M111" s="32" t="s">
+      <c r="M111" s="36" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="16"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>13</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="37">
+      <c r="C112" s="29">
         <f>AB27</f>
-        <v>1030</v>
+        <v>1190</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>121</v>
@@ -8934,20 +8846,18 @@
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="38"/>
+      <c r="C113" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -8956,14 +8866,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="199">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -572,6 +572,51 @@
   </si>
   <si>
     <t>TIA UIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LECHE ANDINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYCCA </t>
+  </si>
+  <si>
+    <t>STO DOMINGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA </t>
+  </si>
+  <si>
+    <t>RANSA FAMI</t>
+  </si>
+  <si>
+    <t>MACHAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNILEVER </t>
+  </si>
+  <si>
+    <t>GRANALLA RIOBANM</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>STA ELENA</t>
+  </si>
+  <si>
+    <t>INTERNO</t>
+  </si>
+  <si>
+    <t>PRTRANS UIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNO </t>
+  </si>
+  <si>
+    <t>PORTRANS</t>
   </si>
 </sst>
 </file>
@@ -791,16 +836,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1181,56 +1226,56 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="M1" s="31" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="S1" s="31" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2238,11 +2283,11 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
         <v>800</v>
@@ -2251,11 +2296,11 @@
         <f>SUM(E4:E26)</f>
         <v>1030</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
         <v>1490</v>
@@ -2264,11 +2309,11 @@
         <f>SUM(K4:K26)</f>
         <v>2690</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
         <v>910</v>
@@ -2277,11 +2322,11 @@
         <f>SUM(Q4:Q26)</f>
         <v>1070</v>
       </c>
-      <c r="S27" s="32" t="s">
+      <c r="S27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
         <v>2570</v>
@@ -2292,56 +2337,56 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="G30" s="31" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="G30" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="M30" s="31" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="M30" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="S30" s="31" t="s">
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="S30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -3416,11 +3461,11 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
         <v>1740</v>
@@ -3429,11 +3474,11 @@
         <f>SUM(E33:E55)</f>
         <v>2320</v>
       </c>
-      <c r="G56" s="32" t="s">
+      <c r="G56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
         <v>2160</v>
@@ -3442,11 +3487,11 @@
         <f>SUM(K33:K55)</f>
         <v>3230</v>
       </c>
-      <c r="M56" s="32" t="s">
+      <c r="M56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
         <v>940</v>
@@ -3455,11 +3500,11 @@
         <f>SUM(Q33:Q55)</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="32" t="s">
+      <c r="S56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
         <v>1190</v>
@@ -3470,54 +3515,54 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="G61" s="31" t="s">
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="G61" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="M61" s="31" t="s">
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="M61" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -4490,11 +4535,11 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
         <v>1680</v>
@@ -4503,11 +4548,11 @@
         <f>SUM(E64:E86)</f>
         <v>3470</v>
       </c>
-      <c r="G87" s="32" t="s">
+      <c r="G87" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
         <v>1990</v>
@@ -4516,11 +4561,11 @@
         <f>SUM(K64:K86)</f>
         <v>2680</v>
       </c>
-      <c r="M87" s="32" t="s">
+      <c r="M87" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
         <v>1440</v>
@@ -4529,11 +4574,11 @@
         <f>SUM(Q64:Q86)</f>
         <v>3500</v>
       </c>
-      <c r="S87" s="32" t="s">
+      <c r="S87" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
         <v>0</v>
@@ -4830,6 +4875,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -4838,22 +4899,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4864,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O105" sqref="O105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4879,68 +4924,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="M1" s="31" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="S1" s="31" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5718,11 +5763,21 @@
       <c r="E13" s="5">
         <v>530</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
+      <c r="G13" s="11">
+        <v>45317</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="4">
+        <v>160</v>
+      </c>
+      <c r="K13" s="5">
+        <v>200</v>
+      </c>
       <c r="M13" s="11">
         <v>45315</v>
       </c>
@@ -5790,11 +5845,21 @@
       <c r="I14" s="16"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
+      <c r="M14" s="11">
+        <v>45317</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="4">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>135</v>
+      </c>
       <c r="S14" s="11">
         <v>45312</v>
       </c>
@@ -5827,11 +5892,21 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="11">
+        <v>45317</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>340</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -5894,11 +5969,21 @@
       <c r="U16" s="16"/>
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="5"/>
+      <c r="Y16" s="11">
+        <v>45317</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -6171,50 +6256,50 @@
       <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
-        <v>1410</v>
+        <v>1510</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>2320</v>
-      </c>
-      <c r="G27" s="32" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
-        <v>1095</v>
+        <v>1255</v>
       </c>
       <c r="K27" s="18">
         <f>SUM(K4:K26)</f>
-        <v>2115</v>
-      </c>
-      <c r="M27" s="32" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
-        <v>1265</v>
+        <v>1400</v>
       </c>
       <c r="Q27" s="18">
         <f>SUM(Q4:Q26)</f>
-        <v>1665</v>
-      </c>
-      <c r="S27" s="32" t="s">
+        <v>1800</v>
+      </c>
+      <c r="S27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
         <v>1310</v>
@@ -6223,71 +6308,71 @@
         <f>SUM(W4:W26)</f>
         <v>3280</v>
       </c>
-      <c r="Y27" s="32" t="s">
+      <c r="Y27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>1190</v>
+        <v>1290</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>3995</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="G30" s="31" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="G30" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="M30" s="31" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="M30" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="S30" s="31" t="s">
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="S30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -6834,11 +6919,21 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
+      <c r="A41" s="11">
+        <v>45315</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="4">
+        <v>130</v>
+      </c>
+      <c r="E41" s="5">
+        <v>130</v>
+      </c>
       <c r="G41" s="11">
         <v>45315</v>
       </c>
@@ -6886,16 +6981,36 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
+      <c r="A42" s="11">
+        <v>45316</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="4">
+        <v>100</v>
+      </c>
+      <c r="E42" s="5">
+        <v>330</v>
+      </c>
+      <c r="G42" s="11">
+        <v>45316</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="4">
+        <v>100</v>
+      </c>
+      <c r="K42" s="5">
+        <v>280</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="11">
         <v>45315</v>
@@ -6929,21 +7044,51 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="5"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="5"/>
+      <c r="A43" s="11">
+        <v>45317</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="4">
+        <v>150</v>
+      </c>
+      <c r="E43" s="5">
+        <v>150</v>
+      </c>
+      <c r="G43" s="11">
+        <v>45317</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="4">
+        <v>135</v>
+      </c>
+      <c r="K43" s="5">
+        <v>135</v>
+      </c>
+      <c r="M43" s="11">
+        <v>45317</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="P43" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>240</v>
+      </c>
       <c r="S43" s="11">
         <v>45315</v>
       </c>
@@ -7008,11 +7153,21 @@
       <c r="O45" s="16"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="5"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="5"/>
+      <c r="S45" s="11">
+        <v>45316</v>
+      </c>
+      <c r="T45" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="U45" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V45" s="4">
+        <v>100</v>
+      </c>
+      <c r="W45" s="5">
+        <v>400</v>
+      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
@@ -7030,11 +7185,21 @@
       <c r="O46" s="16"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="5"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="5"/>
+      <c r="S46" s="11">
+        <v>45317</v>
+      </c>
+      <c r="T46" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="U46" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V46" s="4">
+        <v>120</v>
+      </c>
+      <c r="W46" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
@@ -7235,110 +7400,110 @@
       <c r="W55" s="5"/>
     </row>
     <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>860</v>
+        <v>1240</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>1300</v>
-      </c>
-      <c r="G56" s="32" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
-        <v>1070</v>
+        <v>1305</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K33:K55)</f>
-        <v>1700</v>
-      </c>
-      <c r="M56" s="32" t="s">
+        <v>2115</v>
+      </c>
+      <c r="M56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>1160</v>
+        <v>1260</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>1605</v>
-      </c>
-      <c r="S56" s="32" t="s">
+        <v>1845</v>
+      </c>
+      <c r="S56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
-        <v>1150</v>
+        <v>1370</v>
       </c>
       <c r="W56" s="18">
         <f>SUM(W33:W55)</f>
-        <v>2340</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="G61" s="31" t="s">
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="G61" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="M61" s="31" t="s">
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="M61" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="S61" s="31" t="s">
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="S61" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -8045,11 +8210,21 @@
       <c r="K74" s="5">
         <v>580</v>
       </c>
-      <c r="M74" s="11"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="5"/>
+      <c r="M74" s="11">
+        <v>45317</v>
+      </c>
+      <c r="N74" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" s="4">
+        <v>135</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>135</v>
+      </c>
       <c r="S74" s="11">
         <v>45315</v>
       </c>
@@ -8082,28 +8257,58 @@
       <c r="E75" s="5">
         <v>130</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="5"/>
+      <c r="G75" s="11">
+        <v>45316</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J75" s="4">
+        <v>130</v>
+      </c>
+      <c r="K75" s="5">
+        <v>130</v>
+      </c>
       <c r="M75" s="11"/>
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="5"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="5"/>
+      <c r="S75" s="11">
+        <v>45316</v>
+      </c>
+      <c r="T75" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="U75" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="V75" s="4">
+        <v>100</v>
+      </c>
+      <c r="W75" s="5">
+        <v>230</v>
+      </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
+      <c r="A76" s="11">
+        <v>45317</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="4">
+        <v>140</v>
+      </c>
+      <c r="E76" s="5">
+        <v>140</v>
+      </c>
       <c r="G76" s="11"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
@@ -8341,64 +8546,64 @@
       <c r="W86" s="5"/>
     </row>
     <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>1170</v>
+        <v>1310</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>2130</v>
-      </c>
-      <c r="G87" s="32" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G87" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>1180</v>
+        <v>1310</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>2870</v>
-      </c>
-      <c r="M87" s="32" t="s">
+        <v>3000</v>
+      </c>
+      <c r="M87" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
-        <v>1275</v>
+        <v>1410</v>
       </c>
       <c r="Q87" s="18">
         <f>SUM(Q64:Q86)</f>
-        <v>2025</v>
-      </c>
-      <c r="S87" s="32" t="s">
+        <v>2160</v>
+      </c>
+      <c r="S87" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>1190</v>
+        <v>1290</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>3360</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L99" s="33" t="s">
+      <c r="L99" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="M99" s="34" t="s">
+      <c r="M99" s="32" t="s">
         <v>112</v>
       </c>
       <c r="N99" s="16"/>
@@ -8426,15 +8631,15 @@
       </c>
       <c r="G100" s="22">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>1410</v>
+        <v>1510</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
-      <c r="L100" s="35" t="s">
+      <c r="L100" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M100" s="36" t="s">
+      <c r="M100" s="34" t="s">
         <v>113</v>
       </c>
       <c r="N100" s="16"/>
@@ -8448,7 +8653,7 @@
       </c>
       <c r="C101" s="20">
         <f>J27</f>
-        <v>1095</v>
+        <v>1255</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>1</v>
@@ -8458,19 +8663,19 @@
       </c>
       <c r="F101" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>1410</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="19"/>
-      <c r="L101" s="35" t="s">
+      <c r="L101" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="M101" s="36" t="s">
+      <c r="M101" s="34" t="s">
         <v>114</v>
       </c>
       <c r="N101" s="16"/>
@@ -8484,7 +8689,7 @@
       </c>
       <c r="C102" s="20">
         <f>D27</f>
-        <v>1410</v>
+        <v>1510</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
@@ -8494,17 +8699,17 @@
       </c>
       <c r="F102" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>1275</v>
+        <v>1400</v>
       </c>
       <c r="H102" s="19"/>
-      <c r="L102" s="35" t="s">
+      <c r="L102" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M102" s="36" t="s">
+      <c r="M102" s="34" t="s">
         <v>115</v>
       </c>
       <c r="N102" s="16"/>
@@ -8518,7 +8723,7 @@
       </c>
       <c r="C103" s="20">
         <f>J56</f>
-        <v>1070</v>
+        <v>1305</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>36</v>
@@ -8528,18 +8733,18 @@
       </c>
       <c r="F103" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>1265</v>
+        <v>1370</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
-      <c r="L103" s="35" t="s">
+      <c r="L103" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M103" s="36" t="s">
+      <c r="M103" s="34" t="s">
         <v>116</v>
       </c>
       <c r="N103" s="16"/>
@@ -8553,7 +8758,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>1160</v>
+        <v>1260</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -8563,18 +8768,18 @@
       </c>
       <c r="F104" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="1"/>
-        <v>1190</v>
+        <v>1310</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
-      <c r="L104" s="35" t="s">
+      <c r="L104" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="M104" s="36" t="s">
+      <c r="M104" s="34" t="s">
         <v>117</v>
       </c>
       <c r="N104" s="16"/>
@@ -8588,7 +8793,7 @@
       </c>
       <c r="C105" s="20">
         <f>P27</f>
-        <v>1265</v>
+        <v>1400</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>2</v>
@@ -8597,18 +8802,18 @@
         <v>85</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>1190</v>
+        <v>1310</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
-      <c r="L105" s="35" t="s">
+      <c r="L105" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M105" s="36" t="s">
+      <c r="M105" s="34" t="s">
         <v>118</v>
       </c>
       <c r="N105" s="16"/>
@@ -8622,7 +8827,7 @@
       </c>
       <c r="C106" s="20">
         <f>V56</f>
-        <v>1150</v>
+        <v>1370</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>38</v>
@@ -8630,20 +8835,19 @@
       <c r="E106" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+      <c r="F106" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>1310</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
-      <c r="L106" s="35" t="s">
+      <c r="L106" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="M106" s="36" t="s">
+      <c r="M106" s="34" t="s">
         <v>119</v>
       </c>
       <c r="N106" s="16"/>
@@ -8657,7 +8861,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>860</v>
+        <v>1240</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -8667,18 +8871,18 @@
       </c>
       <c r="F107" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>1170</v>
+        <v>1305</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
-      <c r="L107" s="35" t="s">
+      <c r="L107" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M107" s="36" t="s">
+      <c r="M107" s="34" t="s">
         <v>116</v>
       </c>
       <c r="N107" s="16"/>
@@ -8692,7 +8896,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>1180</v>
+        <v>1310</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -8702,17 +8906,17 @@
       </c>
       <c r="F108" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="1"/>
-        <v>1160</v>
+        <v>1290</v>
       </c>
       <c r="H108" s="19"/>
-      <c r="L108" s="35" t="s">
+      <c r="L108" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M108" s="36" t="s">
+      <c r="M108" s="34" t="s">
         <v>119</v>
       </c>
       <c r="N108" s="16"/>
@@ -8726,7 +8930,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>1170</v>
+        <v>1310</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -8734,19 +8938,18 @@
       <c r="E109" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+      <c r="F109" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>1290</v>
       </c>
       <c r="H109" s="19"/>
-      <c r="L109" s="35" t="s">
+      <c r="L109" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M109" s="36" t="s">
+      <c r="M109" s="34" t="s">
         <v>115</v>
       </c>
       <c r="N109" s="16"/>
@@ -8760,7 +8963,7 @@
       </c>
       <c r="C110" s="20">
         <f>P87</f>
-        <v>1275</v>
+        <v>1410</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>66</v>
@@ -8770,17 +8973,17 @@
       </c>
       <c r="F110" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>1095</v>
+        <v>1260</v>
       </c>
       <c r="H110" s="19"/>
-      <c r="L110" s="35" t="s">
+      <c r="L110" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M110" s="36" t="s">
+      <c r="M110" s="34" t="s">
         <v>120</v>
       </c>
       <c r="N110" s="16"/>
@@ -8794,7 +8997,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>1190</v>
+        <v>1290</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>101</v>
@@ -8804,17 +9007,17 @@
       </c>
       <c r="F111" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>1255</v>
       </c>
       <c r="H111" s="19"/>
-      <c r="L111" s="35" t="s">
+      <c r="L111" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="M111" s="36" t="s">
+      <c r="M111" s="34" t="s">
         <v>119</v>
       </c>
       <c r="N111" s="16"/>
@@ -8828,7 +9031,7 @@
       </c>
       <c r="C112" s="29">
         <f>AB27</f>
-        <v>1190</v>
+        <v>1290</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>121</v>
@@ -8842,7 +9045,7 @@
       </c>
       <c r="G112" s="22">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -8850,6 +9053,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -8858,24 +9079,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="207">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -617,6 +617,30 @@
   </si>
   <si>
     <t>PORTRANS</t>
+  </si>
+  <si>
+    <t>RANSA  FAM</t>
+  </si>
+  <si>
+    <t>RANSA FAMILIA</t>
+  </si>
+  <si>
+    <t>MANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAVETAS </t>
+  </si>
+  <si>
+    <t>GUAYAQUIL</t>
+  </si>
+  <si>
+    <t>PORTOVIEJO</t>
+  </si>
+  <si>
+    <t>CERVEZA</t>
+  </si>
+  <si>
+    <t>portovrijo</t>
   </si>
 </sst>
 </file>
@@ -4907,9 +4931,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E100" sqref="E100:G112"/>
     </sheetView>
   </sheetViews>
@@ -4923,7 +4947,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -4960,7 +4984,7 @@
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4987,7 +5011,7 @@
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5064,7 +5088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45295</v>
       </c>
@@ -5140,8 +5164,11 @@
       <c r="AC4" s="5">
         <v>580</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45295</v>
       </c>
@@ -5215,8 +5242,11 @@
       <c r="AC5" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45299</v>
       </c>
@@ -5288,8 +5318,11 @@
       <c r="AC6" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45302</v>
       </c>
@@ -5365,8 +5398,11 @@
       <c r="AC7" s="5">
         <v>580</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>129</v>
       </c>
@@ -5442,8 +5478,11 @@
       <c r="AC8" s="5">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45306</v>
       </c>
@@ -5515,8 +5554,11 @@
       <c r="AC9" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>136</v>
       </c>
@@ -5592,8 +5634,11 @@
       <c r="AC10" s="5">
         <v>530</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>45309</v>
       </c>
@@ -5669,8 +5714,11 @@
       <c r="AC11" s="15">
         <v>230</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>45311</v>
       </c>
@@ -5746,8 +5794,11 @@
       <c r="AC12" s="5">
         <v>520</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>45314</v>
       </c>
@@ -5823,8 +5874,11 @@
       <c r="AC13" s="5">
         <v>320</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>45315</v>
       </c>
@@ -5840,11 +5894,21 @@
       <c r="E14" s="5">
         <v>140</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
+      <c r="G14" s="11">
+        <v>45318</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+      <c r="K14" s="5">
+        <v>280</v>
+      </c>
       <c r="M14" s="11">
         <v>45317</v>
       </c>
@@ -5888,10 +5952,13 @@
         <v>100</v>
       </c>
       <c r="AC14" s="5">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="AD14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>45317</v>
       </c>
@@ -5912,11 +5979,21 @@
       <c r="I15" s="16"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
+      <c r="M15" s="11">
+        <v>45318</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>280</v>
+      </c>
       <c r="S15" s="11">
         <v>45315</v>
       </c>
@@ -5947,8 +6024,11 @@
       <c r="AC15" s="5">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5964,11 +6044,21 @@
       <c r="O16" s="16"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="5"/>
+      <c r="S16" s="11">
+        <v>45318</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="V16" s="4">
+        <v>100</v>
+      </c>
+      <c r="W16" s="5">
+        <v>130</v>
+      </c>
       <c r="Y16" s="11">
         <v>45317</v>
       </c>
@@ -5984,8 +6074,11 @@
       <c r="AC16" s="5">
         <v>500</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -6006,13 +6099,26 @@
       <c r="U17" s="16"/>
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="5"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y17" s="11">
+        <v>45317</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>450</v>
+      </c>
+      <c r="AD17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -6039,7 +6145,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="5"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -6066,7 +6172,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="5"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -6093,7 +6199,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="5"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6120,7 +6226,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="5"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -6147,7 +6253,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -6174,7 +6280,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="5"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -6201,7 +6307,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="5"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -6228,7 +6334,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="5"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6255,7 +6361,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="5"/>
     </row>
-    <row r="27" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
         <v>34</v>
       </c>
@@ -6276,11 +6382,11 @@
       <c r="I27" s="36"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
-        <v>1255</v>
+        <v>1355</v>
       </c>
       <c r="K27" s="18">
         <f>SUM(K4:K26)</f>
-        <v>2315</v>
+        <v>2595</v>
       </c>
       <c r="M27" s="36" t="s">
         <v>34</v>
@@ -6289,11 +6395,11 @@
       <c r="O27" s="36"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q27" s="18">
         <f>SUM(Q4:Q26)</f>
-        <v>1800</v>
+        <v>2080</v>
       </c>
       <c r="S27" s="36" t="s">
         <v>34</v>
@@ -6302,11 +6408,11 @@
       <c r="U27" s="36"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
-        <v>1310</v>
+        <v>1410</v>
       </c>
       <c r="W27" s="18">
         <f>SUM(W4:W26)</f>
-        <v>3280</v>
+        <v>3410</v>
       </c>
       <c r="Y27" s="36" t="s">
         <v>34</v>
@@ -6315,14 +6421,18 @@
       <c r="AA27" s="36"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>1290</v>
+        <v>1390</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>4495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+        <v>4925</v>
+      </c>
+      <c r="AD27">
+        <f>SUM(AD4:AD21)</f>
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>35</v>
       </c>
@@ -6352,7 +6462,7 @@
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -6374,7 +6484,7 @@
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -7106,21 +7216,41 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
+      <c r="A44" s="11">
+        <v>45318</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4">
+        <v>130</v>
+      </c>
+      <c r="E44" s="5">
+        <v>130</v>
+      </c>
       <c r="G44" s="11"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="5"/>
+      <c r="M44" s="11">
+        <v>45317</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="4">
+        <v>175</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>175</v>
+      </c>
       <c r="S44" s="11">
         <v>45315</v>
       </c>
@@ -7148,11 +7278,21 @@
       <c r="I45" s="16"/>
       <c r="J45" s="4"/>
       <c r="K45" s="5"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="5"/>
+      <c r="M45" s="11">
+        <v>45319</v>
+      </c>
+      <c r="N45" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O45" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="P45" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>280</v>
+      </c>
       <c r="S45" s="11">
         <v>45316</v>
       </c>
@@ -7189,16 +7329,16 @@
         <v>45317</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="V46" s="4">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="W46" s="5">
-        <v>120</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -7217,11 +7357,21 @@
       <c r="O47" s="16"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="5"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="5"/>
+      <c r="S47" s="11">
+        <v>45318</v>
+      </c>
+      <c r="T47" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="U47" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V47" s="4">
+        <v>130</v>
+      </c>
+      <c r="W47" s="5">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
@@ -7239,11 +7389,21 @@
       <c r="O48" s="16"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="5"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="5"/>
+      <c r="S48" s="11">
+        <v>45319</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U48" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="V48" s="4">
+        <v>100</v>
+      </c>
+      <c r="W48" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
@@ -7407,11 +7567,11 @@
       <c r="C56" s="36"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>1240</v>
+        <v>1370</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>1910</v>
+        <v>2040</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>34</v>
@@ -7433,11 +7593,11 @@
       <c r="O56" s="36"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>1260</v>
+        <v>1535</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>1845</v>
+        <v>2300</v>
       </c>
       <c r="S56" s="36" t="s">
         <v>34</v>
@@ -7446,11 +7606,11 @@
       <c r="U56" s="36"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
-        <v>1370</v>
+        <v>1655</v>
       </c>
       <c r="W56" s="18">
         <f>SUM(W33:W55)</f>
-        <v>2860</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -8309,28 +8469,58 @@
       <c r="E76" s="5">
         <v>140</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="5"/>
+      <c r="G76" s="11">
+        <v>45318</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J76" s="4">
+        <v>100</v>
+      </c>
+      <c r="K76" s="5">
+        <v>320</v>
+      </c>
       <c r="M76" s="11"/>
       <c r="N76" s="16"/>
       <c r="O76" s="16"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="5"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="5"/>
+      <c r="S76" s="11">
+        <v>45317</v>
+      </c>
+      <c r="T76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U76" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V76" s="4">
+        <v>160</v>
+      </c>
+      <c r="W76" s="5">
+        <v>160</v>
+      </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
+      <c r="A77" s="11">
+        <v>45318</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="4">
+        <v>120</v>
+      </c>
+      <c r="E77" s="5">
+        <v>120</v>
+      </c>
       <c r="G77" s="11"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
@@ -8348,11 +8538,21 @@
       <c r="W77" s="5"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
+      <c r="A78" s="11">
+        <v>45318</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4">
+        <v>130</v>
+      </c>
+      <c r="E78" s="5">
+        <v>130</v>
+      </c>
       <c r="G78" s="11"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
@@ -8553,11 +8753,11 @@
       <c r="C87" s="36"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>1310</v>
+        <v>1560</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>2270</v>
+        <v>2520</v>
       </c>
       <c r="G87" s="36" t="s">
         <v>34</v>
@@ -8566,11 +8766,11 @@
       <c r="I87" s="36"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>1310</v>
+        <v>1410</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>3000</v>
+        <v>3320</v>
       </c>
       <c r="M87" s="36" t="s">
         <v>34</v>
@@ -8592,11 +8792,11 @@
       <c r="U87" s="36"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>1290</v>
+        <v>1450</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>3590</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -8617,7 +8817,7 @@
       </c>
       <c r="C100" s="20">
         <f>V27</f>
-        <v>1310</v>
+        <v>1410</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>3</v>
@@ -8627,11 +8827,11 @@
       </c>
       <c r="F100" s="21" t="str">
         <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>PAB 2383</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G100" s="22">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>1510</v>
+        <v>1655</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -8653,7 +8853,7 @@
       </c>
       <c r="C101" s="20">
         <f>J27</f>
-        <v>1255</v>
+        <v>1355</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>1</v>
@@ -8663,11 +8863,11 @@
       </c>
       <c r="F101" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" si="1"/>
-        <v>1410</v>
+        <v>1560</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -8699,11 +8899,11 @@
       </c>
       <c r="F102" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1535</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="33" t="s">
@@ -8733,11 +8933,11 @@
       </c>
       <c r="F103" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>1370</v>
+        <v>1510</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -8758,7 +8958,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>1260</v>
+        <v>1535</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -8768,11 +8968,11 @@
       </c>
       <c r="F104" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>1500</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -8793,7 +8993,7 @@
       </c>
       <c r="C105" s="20">
         <f>P27</f>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>2</v>
@@ -8801,12 +9001,13 @@
       <c r="E105" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F105" s="21" t="s">
-        <v>65</v>
+      <c r="F105" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PZQ 0360</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>1450</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -8827,7 +9028,7 @@
       </c>
       <c r="C106" s="20">
         <f>V56</f>
-        <v>1370</v>
+        <v>1655</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>38</v>
@@ -8835,12 +9036,13 @@
       <c r="E106" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="21" t="s">
-        <v>64</v>
+      <c r="F106" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>1410</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -8861,7 +9063,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>1240</v>
+        <v>1370</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -8869,13 +9071,12 @@
       <c r="E107" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+      <c r="F107" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>1305</v>
+        <v>1410</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -8896,7 +9097,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>1310</v>
+        <v>1410</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -8904,13 +9105,12 @@
       <c r="E108" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+      <c r="F108" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="1"/>
-        <v>1290</v>
+        <v>1410</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="33" t="s">
@@ -8930,7 +9130,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>1310</v>
+        <v>1560</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -8938,12 +9138,13 @@
       <c r="E109" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>121</v>
+      <c r="F109" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GBP 8036</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" si="1"/>
-        <v>1290</v>
+        <v>1390</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="33" t="s">
@@ -8973,11 +9174,11 @@
       </c>
       <c r="F110" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>POS 0267</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>1260</v>
+        <v>1370</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="33" t="s">
@@ -8997,7 +9198,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>1290</v>
+        <v>1450</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>101</v>
@@ -9011,7 +9212,7 @@
       </c>
       <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>1255</v>
+        <v>1355</v>
       </c>
       <c r="H111" s="19"/>
       <c r="L111" s="33" t="s">
@@ -9031,7 +9232,7 @@
       </c>
       <c r="C112" s="29">
         <f>AB27</f>
-        <v>1290</v>
+        <v>1390</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>121</v>
@@ -9041,11 +9242,11 @@
       </c>
       <c r="F112" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>POS 0267</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G112" s="22">
         <f t="shared" si="1"/>
-        <v>1240</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="216">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -641,6 +641,33 @@
   </si>
   <si>
     <t>portovrijo</t>
+  </si>
+  <si>
+    <t>ALOAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAISO </t>
+  </si>
+  <si>
+    <t>STANBY</t>
+  </si>
+  <si>
+    <t>PYCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUVENTAS </t>
+  </si>
+  <si>
+    <t>PARAISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUAYAQUIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyca </t>
+  </si>
+  <si>
+    <t>sto domimgo</t>
   </si>
 </sst>
 </file>
@@ -4899,6 +4926,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -4907,22 +4950,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4933,7 +4960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E100" sqref="E100:G112"/>
     </sheetView>
   </sheetViews>
@@ -5974,11 +6001,21 @@
       <c r="E15" s="5">
         <v>340</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
+      <c r="G15" s="11">
+        <v>45320</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4">
+        <v>145</v>
+      </c>
+      <c r="K15" s="5">
+        <v>145</v>
+      </c>
       <c r="M15" s="11">
         <v>45318</v>
       </c>
@@ -6029,21 +6066,51 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="A16" s="11">
+        <v>45320</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5">
+        <v>520</v>
+      </c>
+      <c r="G16" s="11">
+        <v>45321</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="4">
+        <v>100</v>
+      </c>
+      <c r="K16" s="5">
+        <v>600</v>
+      </c>
+      <c r="M16" s="11">
+        <v>45321</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>150</v>
+      </c>
       <c r="S16" s="11">
         <v>45318</v>
       </c>
@@ -6079,26 +6146,66 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="5"/>
+      <c r="A17" s="11">
+        <v>45322</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>110</v>
+      </c>
+      <c r="G17" s="11">
+        <v>45322</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="4">
+        <v>100</v>
+      </c>
+      <c r="K17" s="5">
+        <v>110</v>
+      </c>
+      <c r="M17" s="11">
+        <v>45322</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>500</v>
+      </c>
+      <c r="S17" s="11">
+        <v>45320</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="4">
+        <v>160</v>
+      </c>
+      <c r="W17" s="5">
+        <v>200</v>
+      </c>
       <c r="Y17" s="11">
         <v>45317</v>
       </c>
@@ -6134,16 +6241,39 @@
       <c r="O18" s="16"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="5"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="5"/>
+      <c r="S18" s="11">
+        <v>45321</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="4">
+        <v>160</v>
+      </c>
+      <c r="W18" s="5">
+        <v>190</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>45320</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>150</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>150</v>
+      </c>
+      <c r="AD18">
+        <v>135</v>
+      </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -6162,15 +6292,36 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="5"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="5"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="5"/>
+      <c r="T19" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="V19" s="4">
+        <v>90</v>
+      </c>
+      <c r="W19" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>45321</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>500</v>
+      </c>
+      <c r="AD19">
+        <v>300</v>
+      </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -6369,11 +6520,11 @@
       <c r="C27" s="36"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
-        <v>1510</v>
+        <v>1710</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>2660</v>
+        <v>3290</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>34</v>
@@ -6382,11 +6533,11 @@
       <c r="I27" s="36"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
-        <v>1355</v>
+        <v>1700</v>
       </c>
       <c r="K27" s="18">
         <f>SUM(K4:K26)</f>
-        <v>2595</v>
+        <v>3450</v>
       </c>
       <c r="M27" s="36" t="s">
         <v>34</v>
@@ -6395,11 +6546,11 @@
       <c r="O27" s="36"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="Q27" s="18">
         <f>SUM(Q4:Q26)</f>
-        <v>2080</v>
+        <v>2730</v>
       </c>
       <c r="S27" s="36" t="s">
         <v>34</v>
@@ -6408,11 +6559,11 @@
       <c r="U27" s="36"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
-        <v>1410</v>
+        <v>1820</v>
       </c>
       <c r="W27" s="18">
         <f>SUM(W4:W26)</f>
-        <v>3410</v>
+        <v>3890</v>
       </c>
       <c r="Y27" s="36" t="s">
         <v>34</v>
@@ -6421,15 +6572,15 @@
       <c r="AA27" s="36"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>1390</v>
+        <v>1640</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>4925</v>
+        <v>5575</v>
       </c>
       <c r="AD27">
         <f>SUM(AD4:AD21)</f>
-        <v>3121</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -7231,11 +7382,21 @@
       <c r="E44" s="5">
         <v>130</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="5"/>
+      <c r="G44" s="11">
+        <v>45320</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" s="4">
+        <v>160</v>
+      </c>
+      <c r="K44" s="5">
+        <v>160</v>
+      </c>
       <c r="M44" s="11">
         <v>45317</v>
       </c>
@@ -7268,16 +7429,36 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="5"/>
+      <c r="A45" s="11">
+        <v>45320</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="4">
+        <v>150</v>
+      </c>
+      <c r="E45" s="5">
+        <v>150</v>
+      </c>
+      <c r="G45" s="11">
+        <v>45321</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" s="4">
+        <v>140</v>
+      </c>
+      <c r="K45" s="5">
+        <v>140</v>
+      </c>
       <c r="M45" s="11">
         <v>45319</v>
       </c>
@@ -7315,16 +7496,34 @@
       <c r="C46" s="16"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="16"/>
+      <c r="G46" s="11">
+        <v>31</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="I46" s="16"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="5"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="5"/>
+      <c r="J46" s="4">
+        <v>90</v>
+      </c>
+      <c r="K46" s="5">
+        <v>90</v>
+      </c>
+      <c r="M46" s="11">
+        <v>45320</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="4">
+        <v>120</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>120</v>
+      </c>
       <c r="S46" s="11">
         <v>45317</v>
       </c>
@@ -7352,11 +7551,21 @@
       <c r="I47" s="16"/>
       <c r="J47" s="4"/>
       <c r="K47" s="5"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="5"/>
+      <c r="M47" s="11">
+        <v>45321</v>
+      </c>
+      <c r="N47" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>150</v>
+      </c>
       <c r="S47" s="11">
         <v>45318</v>
       </c>
@@ -7384,11 +7593,21 @@
       <c r="I48" s="16"/>
       <c r="J48" s="4"/>
       <c r="K48" s="5"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="5"/>
+      <c r="M48" s="11">
+        <v>45322</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>200</v>
+      </c>
       <c r="S48" s="11">
         <v>45319</v>
       </c>
@@ -7421,11 +7640,21 @@
       <c r="O49" s="16"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="5"/>
+      <c r="S49" s="11">
+        <v>45321</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="U49" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V49" s="4">
+        <v>140</v>
+      </c>
+      <c r="W49" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
@@ -7443,11 +7672,21 @@
       <c r="O50" s="16"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="5"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="5"/>
+      <c r="S50" s="11">
+        <v>45322</v>
+      </c>
+      <c r="T50" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U50" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="V50" s="4">
+        <v>100</v>
+      </c>
+      <c r="W50" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
@@ -7567,11 +7806,11 @@
       <c r="C56" s="36"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>1370</v>
+        <v>1520</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>2040</v>
+        <v>2190</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>34</v>
@@ -7580,11 +7819,11 @@
       <c r="I56" s="36"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
-        <v>1305</v>
+        <v>1695</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K33:K55)</f>
-        <v>2115</v>
+        <v>2505</v>
       </c>
       <c r="M56" s="36" t="s">
         <v>34</v>
@@ -7593,11 +7832,11 @@
       <c r="O56" s="36"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>1535</v>
+        <v>1965</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>2300</v>
+        <v>2770</v>
       </c>
       <c r="S56" s="36" t="s">
         <v>34</v>
@@ -7606,11 +7845,11 @@
       <c r="U56" s="36"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
-        <v>1655</v>
+        <v>1895</v>
       </c>
       <c r="W56" s="18">
         <f>SUM(W33:W55)</f>
-        <v>3145</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -8432,11 +8671,21 @@
       <c r="K75" s="5">
         <v>130</v>
       </c>
-      <c r="M75" s="11"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="5"/>
+      <c r="M75" s="11">
+        <v>45321</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="P75" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>500</v>
+      </c>
       <c r="S75" s="11">
         <v>45316</v>
       </c>
@@ -8484,11 +8733,21 @@
       <c r="K76" s="5">
         <v>320</v>
       </c>
-      <c r="M76" s="11"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="5"/>
+      <c r="M76" s="11">
+        <v>45322</v>
+      </c>
+      <c r="N76" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="O76" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="P76" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>110</v>
+      </c>
       <c r="S76" s="11">
         <v>45317</v>
       </c>
@@ -8521,21 +8780,41 @@
       <c r="E77" s="5">
         <v>120</v>
       </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="5"/>
+      <c r="G77" s="11">
+        <v>45320</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="4">
+        <v>135</v>
+      </c>
+      <c r="K77" s="5">
+        <v>135</v>
+      </c>
       <c r="M77" s="11"/>
       <c r="N77" s="16"/>
       <c r="O77" s="16"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="5"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="5"/>
+      <c r="S77" s="11">
+        <v>45320</v>
+      </c>
+      <c r="T77" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="U77" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V77" s="4">
+        <v>140</v>
+      </c>
+      <c r="W77" s="5">
+        <v>140</v>
+      </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
@@ -8553,50 +8832,110 @@
       <c r="E78" s="5">
         <v>130</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="5"/>
+      <c r="G78" s="11">
+        <v>45321</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="4">
+        <v>140</v>
+      </c>
+      <c r="K78" s="5">
+        <v>140</v>
+      </c>
       <c r="M78" s="11"/>
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="5"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="5"/>
+      <c r="S78" s="11">
+        <v>45321</v>
+      </c>
+      <c r="T78" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="U78" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V78" s="4">
+        <v>150</v>
+      </c>
+      <c r="W78" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="5"/>
+      <c r="A79" s="11">
+        <v>45320</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="4">
+        <v>100</v>
+      </c>
+      <c r="E79" s="5">
+        <v>100</v>
+      </c>
+      <c r="G79" s="11">
+        <v>45321</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J79" s="4">
+        <v>160</v>
+      </c>
+      <c r="K79" s="5">
+        <v>160</v>
+      </c>
       <c r="M79" s="11"/>
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="5"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="5"/>
+      <c r="S79" s="11">
+        <v>45322</v>
+      </c>
+      <c r="T79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U79" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="V79" s="4">
+        <v>100</v>
+      </c>
+      <c r="W79" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
+      <c r="A80" s="11">
+        <v>45321</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="4">
+        <v>120</v>
+      </c>
+      <c r="E80" s="5">
+        <v>120</v>
+      </c>
       <c r="G80" s="11"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
@@ -8614,11 +8953,21 @@
       <c r="W80" s="5"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="5"/>
+      <c r="A81" s="11">
+        <v>45322</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="4">
+        <v>100</v>
+      </c>
+      <c r="E81" s="5">
+        <v>380</v>
+      </c>
       <c r="G81" s="11"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
@@ -8753,11 +9102,11 @@
       <c r="C87" s="36"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>1560</v>
+        <v>1880</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>2520</v>
+        <v>3120</v>
       </c>
       <c r="G87" s="36" t="s">
         <v>34</v>
@@ -8766,11 +9115,11 @@
       <c r="I87" s="36"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>1410</v>
+        <v>1845</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>3320</v>
+        <v>3755</v>
       </c>
       <c r="M87" s="36" t="s">
         <v>34</v>
@@ -8779,11 +9128,11 @@
       <c r="O87" s="36"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
-        <v>1410</v>
+        <v>1610</v>
       </c>
       <c r="Q87" s="18">
         <f>SUM(Q64:Q86)</f>
-        <v>2160</v>
+        <v>2770</v>
       </c>
       <c r="S87" s="36" t="s">
         <v>34</v>
@@ -8792,11 +9141,11 @@
       <c r="U87" s="36"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>1450</v>
+        <v>1840</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>3750</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -8817,7 +9166,7 @@
       </c>
       <c r="C100" s="20">
         <f>V27</f>
-        <v>1410</v>
+        <v>1820</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>3</v>
@@ -8827,11 +9176,11 @@
       </c>
       <c r="F100" s="21" t="str">
         <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>PCS 1771</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G100" s="22">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>1655</v>
+        <v>1965</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -8853,7 +9202,7 @@
       </c>
       <c r="C101" s="20">
         <f>J27</f>
-        <v>1355</v>
+        <v>1700</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>1</v>
@@ -8863,11 +9212,11 @@
       </c>
       <c r="F101" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" si="1"/>
-        <v>1560</v>
+        <v>1895</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -8889,7 +9238,7 @@
       </c>
       <c r="C102" s="20">
         <f>D27</f>
-        <v>1510</v>
+        <v>1710</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
@@ -8899,11 +9248,11 @@
       </c>
       <c r="F102" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>1535</v>
+        <v>1880</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="33" t="s">
@@ -8923,7 +9272,7 @@
       </c>
       <c r="C103" s="20">
         <f>J56</f>
-        <v>1305</v>
+        <v>1695</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>36</v>
@@ -8933,11 +9282,11 @@
       </c>
       <c r="F103" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>1510</v>
+        <v>1845</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -8958,7 +9307,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>1535</v>
+        <v>1965</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -8968,11 +9317,11 @@
       </c>
       <c r="F104" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1840</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -8993,7 +9342,7 @@
       </c>
       <c r="C105" s="20">
         <f>P27</f>
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>2</v>
@@ -9003,11 +9352,11 @@
       </c>
       <c r="F105" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>1450</v>
+        <v>1820</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -9028,7 +9377,7 @@
       </c>
       <c r="C106" s="20">
         <f>V56</f>
-        <v>1655</v>
+        <v>1895</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>38</v>
@@ -9038,11 +9387,11 @@
       </c>
       <c r="F106" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>1410</v>
+        <v>1750</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -9063,7 +9412,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>1370</v>
+        <v>1520</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -9071,12 +9420,13 @@
       <c r="E107" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="21" t="s">
-        <v>65</v>
+      <c r="F107" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PAB 2383</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>1410</v>
+        <v>1710</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -9097,7 +9447,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>1410</v>
+        <v>1845</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -9105,12 +9455,13 @@
       <c r="E108" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="21" t="s">
-        <v>66</v>
+      <c r="F108" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>AAY 0116</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="1"/>
-        <v>1410</v>
+        <v>1700</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="33" t="s">
@@ -9130,7 +9481,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>1560</v>
+        <v>1880</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -9140,11 +9491,11 @@
       </c>
       <c r="F109" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 8036</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" si="1"/>
-        <v>1390</v>
+        <v>1695</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="33" t="s">
@@ -9164,7 +9515,7 @@
       </c>
       <c r="C110" s="20">
         <f>P87</f>
-        <v>1410</v>
+        <v>1610</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>66</v>
@@ -9174,11 +9525,11 @@
       </c>
       <c r="F110" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>POS 0267</v>
+        <v>GBP 8036</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>1370</v>
+        <v>1640</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="33" t="s">
@@ -9198,7 +9549,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>1450</v>
+        <v>1840</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>101</v>
@@ -9208,11 +9559,11 @@
       </c>
       <c r="F111" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>1355</v>
+        <v>1610</v>
       </c>
       <c r="H111" s="19"/>
       <c r="L111" s="33" t="s">
@@ -9232,7 +9583,7 @@
       </c>
       <c r="C112" s="29">
         <f>AB27</f>
-        <v>1390</v>
+        <v>1640</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>121</v>
@@ -9242,11 +9593,11 @@
       </c>
       <c r="F112" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>POS 0267</v>
       </c>
       <c r="G112" s="22">
         <f t="shared" si="1"/>
-        <v>1305</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -9254,16 +9605,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -9272,14 +9621,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="6" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="220">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -668,6 +670,18 @@
   </si>
   <si>
     <t>sto domimgo</t>
+  </si>
+  <si>
+    <t>FAMILIA</t>
+  </si>
+  <si>
+    <t>POLITILENO</t>
+  </si>
+  <si>
+    <t>ENVAPRES</t>
+  </si>
+  <si>
+    <t>PZQ 0369</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="E100:G112 A4"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4926,6 +4940,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -4934,22 +4964,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4960,8 +4974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G112"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9605,6 +9619,2803 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:G112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="S1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="Y1" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="2">
+        <v>45323</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4">
+        <v>120</v>
+      </c>
+      <c r="K4" s="5">
+        <v>120</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45323</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>100</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="5"/>
+      <c r="Y4" s="2">
+        <v>45323</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>120</v>
+      </c>
+      <c r="AD4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="5"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="5"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="5"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="5"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="5"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="5"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="5"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="5"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="5"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="5"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="5"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="5"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="5"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="5"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="5"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="5"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="5"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="5"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="5"/>
+    </row>
+    <row r="27" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="17">
+        <f>SUM(D4:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <f>SUM(E4:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="17">
+        <f>SUM(J4:J26)</f>
+        <v>120</v>
+      </c>
+      <c r="K27" s="18">
+        <f>SUM(K4:K26)</f>
+        <v>120</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="17">
+        <f>SUM(P4:P26)</f>
+        <v>100</v>
+      </c>
+      <c r="Q27" s="18">
+        <f>SUM(Q4:Q26)</f>
+        <v>100</v>
+      </c>
+      <c r="S27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="17">
+        <f>SUM(V4:V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="18">
+        <f>SUM(W4:W26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="17">
+        <f>SUM(AB4:AB26)</f>
+        <v>100</v>
+      </c>
+      <c r="AC27" s="18">
+        <f>SUM(AC4:AC26)</f>
+        <v>120</v>
+      </c>
+      <c r="AD27">
+        <f>SUM(AD4:AD21)</f>
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="G30" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="M30" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="S30" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="5"/>
+      <c r="S33" s="2">
+        <v>45323</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" s="4">
+        <v>100</v>
+      </c>
+      <c r="W33" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="5"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="5"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="5"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="15"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="15"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="15"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="5"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="5"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="5"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="5"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="5"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="5"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="5"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="5"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="5"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="5"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="5"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="5"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="5"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="5"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="5"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="5"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="5"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="5"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="5"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="5"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="5"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="5"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="5"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="5"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="5"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="5"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="5"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="17">
+        <f>SUM(D33:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="18">
+        <f>SUM(E33:E55)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="17">
+        <f>SUM(J33:J55)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="18">
+        <f>SUM(K33:K55)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="17">
+        <f>SUM(P33:P55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="18">
+        <f>SUM(Q33:Q55)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="17">
+        <f>SUM(V33:V55)</f>
+        <v>100</v>
+      </c>
+      <c r="W56" s="18">
+        <f>SUM(W33:W55)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="G61" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="M61" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="S61" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="G64" s="2">
+        <v>45323</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="4">
+        <v>160</v>
+      </c>
+      <c r="K64" s="5">
+        <v>160</v>
+      </c>
+      <c r="M64" s="2">
+        <v>45323</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P64" s="4">
+        <v>120</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>120</v>
+      </c>
+      <c r="S64" s="2">
+        <v>45323</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V64" s="4">
+        <v>100</v>
+      </c>
+      <c r="W64" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="5"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="5"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="5"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="5"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="5"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="5"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="5"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="5"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="5"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="5"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="28"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="10"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="10"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="10"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="5"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="5"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="15"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="15"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="15"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="5"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="5"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="5"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="5"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="5"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="5"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="5"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="5"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="5"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="5"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="5"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="5"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="5"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="5"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="5"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="5"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="5"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="5"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="5"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="5"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="5"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="5"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="5"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="5"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="5"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="5"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="5"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="5"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="5"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="5"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="5"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="5"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="5"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="5"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="5"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="5"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="5"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="5"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="5"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="5"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="5"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="5"/>
+    </row>
+    <row r="87" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A87" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="17">
+        <f>SUM(D64:D86)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="18">
+        <f>SUM(E64:E86)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="17">
+        <f>SUM(J64:J86)</f>
+        <v>160</v>
+      </c>
+      <c r="K87" s="18">
+        <f>SUM(K64:K86)</f>
+        <v>160</v>
+      </c>
+      <c r="M87" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="17">
+        <f>SUM(P64:P86)</f>
+        <v>120</v>
+      </c>
+      <c r="Q87" s="18">
+        <f>SUM(Q64:Q86)</f>
+        <v>120</v>
+      </c>
+      <c r="S87" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="17">
+        <f>SUM(V64:V86)</f>
+        <v>100</v>
+      </c>
+      <c r="W87" s="18">
+        <f>SUM(W64:W86)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L99" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="M99" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="N99" s="16"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="20">
+        <f>V27</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" s="21" t="str">
+        <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
+        <v>GBP 3078</v>
+      </c>
+      <c r="G100" s="22">
+        <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
+        <v>160</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="L100" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M100" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="N100" s="16"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="20">
+        <f>J27</f>
+        <v>120</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F101" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>AAY 0116</v>
+      </c>
+      <c r="G101" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="L101" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M101" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="N101" s="16"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="20">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G102" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="L102" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N102" s="16"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="20">
+        <f>J56</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="L103" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M103" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="N103" s="16"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="20">
+        <f>P56</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G104" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="L104" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="M104" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="N104" s="16"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="20">
+        <f>P27</f>
+        <v>100</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G105" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="L105" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M105" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="N105" s="16"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="20">
+        <f>V56</f>
+        <v>100</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="L106" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M106" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N106" s="16"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="20">
+        <f>D56</f>
+        <v>0</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="L107" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="N107" s="16"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="20">
+        <f>J87</f>
+        <v>160</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="L108" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M108" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N108" s="16"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>10</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="20">
+        <f>D87</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="L109" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M109" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N109" s="16"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>11</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="20">
+        <f>P87</f>
+        <v>120</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="L110" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M110" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="N110" s="16"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>12</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="20">
+        <f>V87</f>
+        <v>100</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F111" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PTO 0223</v>
+      </c>
+      <c r="G111" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="L111" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M111" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N111" s="16"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>13</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="29">
+        <f>AB27</f>
+        <v>100</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -9621,18 +12432,29 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="226">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -681,7 +681,25 @@
     <t>ENVAPRES</t>
   </si>
   <si>
-    <t>PZQ 0369</t>
+    <t xml:space="preserve">SEMVRA </t>
+  </si>
+  <si>
+    <t>HULARUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERVEZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUPI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATICOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX MANTA </t>
+  </si>
+  <si>
+    <t>CEUNCA</t>
   </si>
 </sst>
 </file>
@@ -4940,6 +4958,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="M1:Q2"/>
@@ -4948,22 +4982,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9619,16 +9637,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -9637,14 +9653,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9656,12 +9674,12 @@
   <dimension ref="A1:AD113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G112"/>
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" customWidth="1"/>
@@ -9811,11 +9829,21 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="4">
+        <v>140</v>
+      </c>
+      <c r="E4" s="5">
+        <v>140</v>
+      </c>
       <c r="G4" s="2">
         <v>45323</v>
       </c>
@@ -9846,11 +9874,21 @@
       <c r="Q4" s="5">
         <v>100</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="5"/>
+      <c r="S4" s="2">
+        <v>45324</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="4">
+        <v>160</v>
+      </c>
+      <c r="W4" s="5">
+        <v>200</v>
+      </c>
       <c r="Y4" s="2">
         <v>45323</v>
       </c>
@@ -9876,26 +9914,66 @@
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="5"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="5"/>
+      <c r="G5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4">
+        <v>160</v>
+      </c>
+      <c r="K5" s="5">
+        <v>200</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45293</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>180</v>
+      </c>
+      <c r="S5" s="2">
+        <v>45327</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="4">
+        <v>150</v>
+      </c>
+      <c r="W5" s="5">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>45324</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>90</v>
+      </c>
       <c r="AD5">
         <v>63</v>
       </c>
@@ -10517,11 +10595,11 @@
       <c r="C27" s="36"/>
       <c r="D27" s="17">
         <f>SUM(D4:D26)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E27" s="18">
         <f>SUM(E4:E26)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>34</v>
@@ -10530,11 +10608,11 @@
       <c r="I27" s="36"/>
       <c r="J27" s="17">
         <f>SUM(J4:J26)</f>
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K27" s="18">
         <f>SUM(K4:K26)</f>
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="M27" s="36" t="s">
         <v>34</v>
@@ -10543,11 +10621,11 @@
       <c r="O27" s="36"/>
       <c r="P27" s="17">
         <f>SUM(P4:P26)</f>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="Q27" s="18">
         <f>SUM(Q4:Q26)</f>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="S27" s="36" t="s">
         <v>34</v>
@@ -10556,11 +10634,11 @@
       <c r="U27" s="36"/>
       <c r="V27" s="17">
         <f>SUM(V4:V26)</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="W27" s="18">
         <f>SUM(W4:W26)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="Y27" s="36" t="s">
         <v>34</v>
@@ -10569,11 +10647,11 @@
       <c r="AA27" s="36"/>
       <c r="AB27" s="17">
         <f>SUM(AB4:AB26)</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AC27" s="18">
         <f>SUM(AC4:AC26)</f>
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AD27">
         <f>SUM(AD4:AD21)</f>
@@ -10695,21 +10773,51 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="5"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="5"/>
+      <c r="A33" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="4">
+        <v>140</v>
+      </c>
+      <c r="E33" s="5">
+        <v>140</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45324</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="4">
+        <v>90</v>
+      </c>
+      <c r="K33" s="5">
+        <v>90</v>
+      </c>
+      <c r="M33" s="2">
+        <v>45324</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" s="4">
+        <v>140</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>140</v>
+      </c>
       <c r="S33" s="2">
         <v>45323</v>
       </c>
@@ -10727,26 +10835,66 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="5"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="5"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="5"/>
+      <c r="A34" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="4">
+        <v>150</v>
+      </c>
+      <c r="E34" s="5">
+        <v>150</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45326</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="4">
+        <v>100</v>
+      </c>
+      <c r="K34" s="5">
+        <v>100</v>
+      </c>
+      <c r="M34" s="2">
+        <v>45324</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>200</v>
+      </c>
+      <c r="S34" s="2">
+        <v>45324</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" s="4">
+        <v>90</v>
+      </c>
+      <c r="W34" s="5">
+        <v>90</v>
+      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -11219,11 +11367,11 @@
       <c r="C56" s="36"/>
       <c r="D56" s="17">
         <f>SUM(D33:D55)</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E33:E55)</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>34</v>
@@ -11232,11 +11380,11 @@
       <c r="I56" s="36"/>
       <c r="J56" s="17">
         <f>SUM(J33:J55)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K33:K55)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="M56" s="36" t="s">
         <v>34</v>
@@ -11245,11 +11393,11 @@
       <c r="O56" s="36"/>
       <c r="P56" s="17">
         <f>SUM(P33:P55)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q56" s="18">
         <f>SUM(Q33:Q55)</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="S56" s="36" t="s">
         <v>34</v>
@@ -11258,11 +11406,11 @@
       <c r="U56" s="36"/>
       <c r="V56" s="17">
         <f>SUM(V33:V55)</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="W56" s="18">
         <f>SUM(W33:W55)</f>
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -11380,11 +11528,21 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
+      <c r="A64" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="4">
+        <v>90</v>
+      </c>
+      <c r="E64" s="5">
+        <v>90</v>
+      </c>
       <c r="G64" s="2">
         <v>45323</v>
       </c>
@@ -11432,26 +11590,66 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="5"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="5"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="5"/>
+      <c r="A65" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="4">
+        <v>160</v>
+      </c>
+      <c r="E65" s="5">
+        <v>160</v>
+      </c>
+      <c r="G65" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" s="4">
+        <v>120</v>
+      </c>
+      <c r="K65" s="5">
+        <v>120</v>
+      </c>
+      <c r="M65" s="2">
+        <v>45327</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P65" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>500</v>
+      </c>
+      <c r="S65" s="2">
+        <v>45296</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V65" s="4">
+        <v>100</v>
+      </c>
+      <c r="W65" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
@@ -11923,11 +12121,11 @@
       <c r="C87" s="36"/>
       <c r="D87" s="17">
         <f>SUM(D64:D86)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E87" s="18">
         <f>SUM(E64:E86)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G87" s="36" t="s">
         <v>34</v>
@@ -11936,11 +12134,11 @@
       <c r="I87" s="36"/>
       <c r="J87" s="17">
         <f>SUM(J64:J86)</f>
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K87" s="18">
         <f>SUM(K64:K86)</f>
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="M87" s="36" t="s">
         <v>34</v>
@@ -11949,11 +12147,11 @@
       <c r="O87" s="36"/>
       <c r="P87" s="17">
         <f>SUM(P64:P86)</f>
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="Q87" s="18">
         <f>SUM(Q64:Q86)</f>
-        <v>120</v>
+        <v>620</v>
       </c>
       <c r="S87" s="36" t="s">
         <v>34</v>
@@ -11962,11 +12160,11 @@
       <c r="U87" s="36"/>
       <c r="V87" s="17">
         <f>SUM(V64:V86)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W87" s="18">
         <f>SUM(W64:W86)</f>
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -11987,7 +12185,7 @@
       </c>
       <c r="C100" s="20">
         <f>V27</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>3</v>
@@ -11997,11 +12195,11 @@
       </c>
       <c r="F100" s="21" t="str">
         <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>GBP 3078</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G100" s="22">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -12023,7 +12221,7 @@
       </c>
       <c r="C101" s="20">
         <f>J27</f>
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>1</v>
@@ -12033,11 +12231,11 @@
       </c>
       <c r="F101" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -12059,7 +12257,7 @@
       </c>
       <c r="C102" s="20">
         <f>D27</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
@@ -12067,12 +12265,13 @@
       <c r="E102" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="21" t="s">
-        <v>66</v>
+      <c r="F102" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>POS 0267</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="H102" s="19"/>
       <c r="L102" s="33" t="s">
@@ -12092,7 +12291,7 @@
       </c>
       <c r="C103" s="20">
         <f>J56</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>36</v>
@@ -12100,12 +12299,13 @@
       <c r="E103" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F103" s="21" t="s">
-        <v>2</v>
+      <c r="F103" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>AAY 0116</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="H103" s="19"/>
       <c r="J103" s="19"/>
@@ -12126,7 +12326,7 @@
       </c>
       <c r="C104" s="20">
         <f>P56</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>37</v>
@@ -12135,11 +12335,11 @@
         <v>84</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="H104" s="19"/>
       <c r="J104" s="19"/>
@@ -12160,7 +12360,7 @@
       </c>
       <c r="C105" s="20">
         <f>P27</f>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>2</v>
@@ -12169,11 +12369,11 @@
         <v>85</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="H105" s="19"/>
       <c r="J105" s="19"/>
@@ -12194,7 +12394,7 @@
       </c>
       <c r="C106" s="20">
         <f>V56</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>38</v>
@@ -12202,12 +12402,13 @@
       <c r="E106" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="21" t="s">
-        <v>38</v>
+      <c r="F106" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GIR 0872</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H106" s="19"/>
       <c r="J106" s="19"/>
@@ -12228,7 +12429,7 @@
       </c>
       <c r="C107" s="20">
         <f>D56</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>35</v>
@@ -12236,12 +12437,13 @@
       <c r="E107" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="21" t="s">
-        <v>37</v>
+      <c r="F107" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>AFU 0919</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="H107" s="19"/>
       <c r="J107" s="19"/>
@@ -12262,7 +12464,7 @@
       </c>
       <c r="C108" s="20">
         <f>J87</f>
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>65</v>
@@ -12270,12 +12472,13 @@
       <c r="E108" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="21" t="s">
-        <v>36</v>
+      <c r="F108" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PZQ 0360</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H108" s="19"/>
       <c r="L108" s="33" t="s">
@@ -12295,7 +12498,7 @@
       </c>
       <c r="C109" s="20">
         <f>D87</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>64</v>
@@ -12303,12 +12506,13 @@
       <c r="E109" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>64</v>
+      <c r="F109" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>GLL 0927</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H109" s="19"/>
       <c r="L109" s="33" t="s">
@@ -12328,7 +12532,7 @@
       </c>
       <c r="C110" s="20">
         <f>P87</f>
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>66</v>
@@ -12337,11 +12541,11 @@
         <v>90</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H110" s="19"/>
       <c r="L110" s="33" t="s">
@@ -12361,7 +12565,7 @@
       </c>
       <c r="C111" s="20">
         <f>V87</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>101</v>
@@ -12369,13 +12573,12 @@
       <c r="E111" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F111" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+      <c r="F111" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="G111" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H111" s="19"/>
       <c r="L111" s="33" t="s">
@@ -12395,7 +12598,7 @@
       </c>
       <c r="C112" s="29">
         <f>AB27</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>121</v>
@@ -12403,12 +12606,13 @@
       <c r="E112" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F112" s="21" t="s">
-        <v>0</v>
+      <c r="F112" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>PAB 2383</v>
       </c>
       <c r="G112" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -12416,6 +12620,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -12424,24 +12646,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="183">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>PLASTICOS</t>
+  </si>
+  <si>
+    <t>RIOBAMBA</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -5812,16 +5815,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -5830,14 +5831,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5848,7 +5851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="E100" sqref="E100:G112"/>
     </sheetView>
   </sheetViews>
@@ -6164,11 +6167,21 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4">
+        <v>150</v>
+      </c>
+      <c r="E6" s="5">
+        <v>150</v>
+      </c>
       <c r="G6" s="2">
         <v>45297</v>
       </c>
@@ -6189,11 +6202,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="5"/>
+      <c r="S6" s="2">
+        <v>45329</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="4">
+        <v>160</v>
+      </c>
+      <c r="W6" s="5">
+        <v>160</v>
+      </c>
       <c r="Y6" s="2">
         <v>45297</v>
       </c>
@@ -6219,11 +6242,21 @@
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
+      <c r="G7" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4">
+        <v>160</v>
+      </c>
+      <c r="K7" s="5">
+        <v>160</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -6234,11 +6267,21 @@
       <c r="U7" s="3"/>
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="5"/>
+      <c r="Y7" s="2">
+        <v>45329</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>150</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>150</v>
+      </c>
       <c r="AD7">
         <v>300</v>
       </c>
@@ -6800,11 +6843,11 @@
       <c r="C27" s="34"/>
       <c r="D27" s="16">
         <f>SUM(D4:D26)</f>
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="E27" s="17">
         <f>SUM(E4:E26)</f>
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>19</v>
@@ -6813,11 +6856,11 @@
       <c r="I27" s="34"/>
       <c r="J27" s="16">
         <f>SUM(J4:J26)</f>
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K27" s="17">
         <f>SUM(K4:K26)</f>
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="M27" s="34" t="s">
         <v>19</v>
@@ -6839,11 +6882,11 @@
       <c r="U27" s="34"/>
       <c r="V27" s="16">
         <f>SUM(V4:V26)</f>
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="W27" s="17">
         <f>SUM(W4:W26)</f>
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="Y27" s="34" t="s">
         <v>19</v>
@@ -6852,11 +6895,11 @@
       <c r="AA27" s="34"/>
       <c r="AB27" s="16">
         <f>SUM(AB4:AB26)</f>
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="AC27" s="17">
         <f>SUM(AC4:AC26)</f>
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="AD27">
         <f>SUM(AD4:AD21)</f>
@@ -7132,11 +7175,21 @@
       <c r="K35" s="5">
         <v>150</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="5"/>
+      <c r="M35" s="2">
+        <v>45329</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="4">
+        <v>120</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>120</v>
+      </c>
       <c r="S35" s="2">
         <v>45297</v>
       </c>
@@ -7154,21 +7207,41 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4">
+        <v>130</v>
+      </c>
+      <c r="E36" s="5">
+        <v>130</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="5"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="5"/>
+      <c r="M36" s="2">
+        <v>45329</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>200</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -7602,11 +7675,11 @@
       <c r="C56" s="34"/>
       <c r="D56" s="16">
         <f>SUM(D33:D55)</f>
-        <v>430</v>
+        <v>560</v>
       </c>
       <c r="E56" s="17">
         <f>SUM(E33:E55)</f>
-        <v>430</v>
+        <v>560</v>
       </c>
       <c r="G56" s="34" t="s">
         <v>19</v>
@@ -7628,11 +7701,11 @@
       <c r="O56" s="34"/>
       <c r="P56" s="16">
         <f>SUM(P33:P55)</f>
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q56" s="17">
         <f>SUM(Q33:Q55)</f>
-        <v>340</v>
+        <v>660</v>
       </c>
       <c r="S56" s="34" t="s">
         <v>19</v>
@@ -7902,11 +7975,21 @@
       <c r="E66" s="5">
         <v>300</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="5"/>
+      <c r="G66" s="2">
+        <v>45329</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="4">
+        <v>150</v>
+      </c>
+      <c r="K66" s="5">
+        <v>150</v>
+      </c>
       <c r="M66" s="2">
         <v>45328</v>
       </c>
@@ -7922,10 +8005,18 @@
       <c r="Q66" s="5">
         <v>150</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="4"/>
+      <c r="S66" s="2">
+        <v>45329</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V66" s="4">
+        <v>100</v>
+      </c>
       <c r="W66" s="5"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -8389,11 +8480,11 @@
       <c r="I87" s="34"/>
       <c r="J87" s="16">
         <f>SUM(J64:J86)</f>
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K87" s="17">
         <f>SUM(K64:K86)</f>
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="M87" s="34" t="s">
         <v>19</v>
@@ -8415,7 +8506,7 @@
       <c r="U87" s="34"/>
       <c r="V87" s="16">
         <f>SUM(V64:V86)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W87" s="17">
         <f>SUM(W64:W86)</f>
@@ -8440,7 +8531,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>3</v>
@@ -8450,11 +8541,11 @@
       </c>
       <c r="F100" s="20" t="str">
         <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>POS 0267</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G100" s="21">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -8476,7 +8567,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>1</v>
@@ -8490,7 +8581,7 @@
       </c>
       <c r="G101" s="21">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -8512,7 +8603,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -8520,13 +8611,12 @@
       <c r="E102" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F102" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+      <c r="F102" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>560</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="31" t="s">
@@ -8556,11 +8646,11 @@
       </c>
       <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>GBP 8036</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -8581,7 +8671,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>22</v>
@@ -8591,11 +8681,11 @@
       </c>
       <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -8624,12 +8714,13 @@
       <c r="E105" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F105" s="20" t="s">
-        <v>74</v>
+      <c r="F105" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PAB 2383</v>
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -8660,11 +8751,11 @@
       </c>
       <c r="F106" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -8685,7 +8776,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>430</v>
+        <v>560</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>20</v>
@@ -8693,12 +8784,13 @@
       <c r="E107" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F107" s="20" t="s">
-        <v>23</v>
+      <c r="F107" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>AFU 0919</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -8719,7 +8811,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>31</v>
@@ -8729,11 +8821,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="31" t="s">
@@ -8763,11 +8855,11 @@
       </c>
       <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="31" t="s">
@@ -8797,11 +8889,11 @@
       </c>
       <c r="F110" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="31" t="s">
@@ -8821,7 +8913,7 @@
       </c>
       <c r="C111" s="19">
         <f>V87</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>54</v>
@@ -8829,12 +8921,13 @@
       <c r="E111" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F111" s="20" t="s">
-        <v>31</v>
+      <c r="F111" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PZQ 0360</v>
       </c>
       <c r="G111" s="21">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H111" s="18"/>
       <c r="L111" s="31" t="s">
@@ -8854,7 +8947,7 @@
       </c>
       <c r="C112" s="27">
         <f>AB27</f>
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>74</v>
@@ -8864,11 +8957,11 @@
       </c>
       <c r="F112" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G112" s="21">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -8876,6 +8969,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -8884,24 +8995,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="187">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -570,6 +570,18 @@
   </si>
   <si>
     <t>RIOBAMBA</t>
+  </si>
+  <si>
+    <t>plastex</t>
+  </si>
+  <si>
+    <t>plasticos</t>
+  </si>
+  <si>
+    <t>sto domingo</t>
+  </si>
+  <si>
+    <t>AGRIPAC</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -5851,7 +5863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
       <selection activeCell="E100" sqref="E100:G112"/>
     </sheetView>
   </sheetViews>
@@ -6197,11 +6209,21 @@
       <c r="K6" s="5">
         <v>120</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="M6" s="2">
+        <v>45331</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>150</v>
+      </c>
       <c r="S6" s="2">
         <v>45329</v>
       </c>
@@ -6237,11 +6259,21 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>285</v>
+      </c>
       <c r="G7" s="2">
         <v>45298</v>
       </c>
@@ -6262,11 +6294,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="5"/>
+      <c r="S7" s="2">
+        <v>45331</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="4">
+        <v>160</v>
+      </c>
+      <c r="W7" s="5">
+        <v>200</v>
+      </c>
       <c r="Y7" s="2">
         <v>45329</v>
       </c>
@@ -6292,11 +6334,21 @@
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="23"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
+      <c r="G8" s="11">
+        <v>45331</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <v>160</v>
+      </c>
+      <c r="K8" s="5">
+        <v>200</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -6307,11 +6359,21 @@
       <c r="U8" s="3"/>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="5"/>
+      <c r="Y8" s="2">
+        <v>45331</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>180</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>180</v>
+      </c>
       <c r="AD8">
         <v>140</v>
       </c>
@@ -6337,11 +6399,21 @@
       <c r="U9" s="3"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="5"/>
+      <c r="Y9" s="2">
+        <v>45331</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>140</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>140</v>
+      </c>
       <c r="AD9">
         <v>90</v>
       </c>
@@ -6843,11 +6915,11 @@
       <c r="C27" s="34"/>
       <c r="D27" s="16">
         <f>SUM(D4:D26)</f>
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="E27" s="17">
         <f>SUM(E4:E26)</f>
-        <v>440</v>
+        <v>725</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>19</v>
@@ -6856,11 +6928,11 @@
       <c r="I27" s="34"/>
       <c r="J27" s="16">
         <f>SUM(J4:J26)</f>
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="K27" s="17">
         <f>SUM(K4:K26)</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M27" s="34" t="s">
         <v>19</v>
@@ -6869,11 +6941,11 @@
       <c r="O27" s="34"/>
       <c r="P27" s="16">
         <f>SUM(P4:P26)</f>
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="Q27" s="17">
         <f>SUM(Q4:Q26)</f>
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="S27" s="34" t="s">
         <v>19</v>
@@ -6882,11 +6954,11 @@
       <c r="U27" s="34"/>
       <c r="V27" s="16">
         <f>SUM(V4:V26)</f>
-        <v>470</v>
+        <v>630</v>
       </c>
       <c r="W27" s="17">
         <f>SUM(W4:W26)</f>
-        <v>510</v>
+        <v>710</v>
       </c>
       <c r="Y27" s="34" t="s">
         <v>19</v>
@@ -6895,11 +6967,11 @@
       <c r="AA27" s="34"/>
       <c r="AB27" s="16">
         <f>SUM(AB4:AB26)</f>
-        <v>490</v>
+        <v>810</v>
       </c>
       <c r="AC27" s="17">
         <f>SUM(AC4:AC26)</f>
-        <v>510</v>
+        <v>830</v>
       </c>
       <c r="AD27">
         <f>SUM(AD4:AD21)</f>
@@ -7222,11 +7294,21 @@
       <c r="E36" s="5">
         <v>130</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="5"/>
+      <c r="G36" s="2">
+        <v>45331</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="4">
+        <v>180</v>
+      </c>
+      <c r="K36" s="5">
+        <v>180</v>
+      </c>
       <c r="M36" s="2">
         <v>45329</v>
       </c>
@@ -7249,21 +7331,41 @@
       <c r="W36" s="5"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="6">
+        <v>45331</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="4">
+        <v>90</v>
+      </c>
+      <c r="E37" s="5">
+        <v>90</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
       <c r="K37" s="5"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="5"/>
+      <c r="M37" s="2">
+        <v>45331</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>200</v>
+      </c>
       <c r="S37" s="2"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -7675,11 +7777,11 @@
       <c r="C56" s="34"/>
       <c r="D56" s="16">
         <f>SUM(D33:D55)</f>
-        <v>560</v>
+        <v>650</v>
       </c>
       <c r="E56" s="17">
         <f>SUM(E33:E55)</f>
-        <v>560</v>
+        <v>650</v>
       </c>
       <c r="G56" s="34" t="s">
         <v>19</v>
@@ -7688,11 +7790,11 @@
       <c r="I56" s="34"/>
       <c r="J56" s="16">
         <f>SUM(J33:J55)</f>
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K56" s="17">
         <f>SUM(K33:K55)</f>
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="M56" s="34" t="s">
         <v>19</v>
@@ -7701,11 +7803,11 @@
       <c r="O56" s="34"/>
       <c r="P56" s="16">
         <f>SUM(P33:P55)</f>
-        <v>580</v>
+        <v>740</v>
       </c>
       <c r="Q56" s="17">
         <f>SUM(Q33:Q55)</f>
-        <v>660</v>
+        <v>860</v>
       </c>
       <c r="S56" s="34" t="s">
         <v>19</v>
@@ -8020,48 +8122,118 @@
       <c r="W66" s="5"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="5"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="5"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="5"/>
+      <c r="A67" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4">
+        <v>170</v>
+      </c>
+      <c r="E67" s="5">
+        <v>170</v>
+      </c>
+      <c r="G67" s="2">
+        <v>45331</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="4">
+        <v>170</v>
+      </c>
+      <c r="K67" s="5">
+        <v>170</v>
+      </c>
+      <c r="M67" s="2">
+        <v>45331</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P67" s="4">
+        <v>180</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>180</v>
+      </c>
+      <c r="S67" s="2">
+        <v>45330</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V67" s="4">
+        <v>100</v>
+      </c>
+      <c r="W67" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
+      <c r="A68" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="4">
+        <v>90</v>
+      </c>
+      <c r="E68" s="5">
+        <v>90</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="4"/>
       <c r="K68" s="5"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="5"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="26"/>
+      <c r="M68" s="2">
+        <v>45331</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>150</v>
+      </c>
+      <c r="S68" s="2">
+        <v>45331</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V68" s="4">
+        <v>150</v>
+      </c>
+      <c r="W68" s="26">
+        <v>150</v>
+      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
@@ -8467,11 +8639,11 @@
       <c r="C87" s="34"/>
       <c r="D87" s="16">
         <f>SUM(D64:D86)</f>
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="E87" s="17">
         <f>SUM(E64:E86)</f>
-        <v>550</v>
+        <v>810</v>
       </c>
       <c r="G87" s="34" t="s">
         <v>19</v>
@@ -8480,11 +8652,11 @@
       <c r="I87" s="34"/>
       <c r="J87" s="16">
         <f>SUM(J64:J86)</f>
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K87" s="17">
         <f>SUM(K64:K86)</f>
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="M87" s="34" t="s">
         <v>19</v>
@@ -8493,11 +8665,11 @@
       <c r="O87" s="34"/>
       <c r="P87" s="16">
         <f>SUM(P64:P86)</f>
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="Q87" s="17">
         <f>SUM(Q64:Q86)</f>
-        <v>770</v>
+        <v>1100</v>
       </c>
       <c r="S87" s="34" t="s">
         <v>19</v>
@@ -8506,11 +8678,11 @@
       <c r="U87" s="34"/>
       <c r="V87" s="16">
         <f>SUM(V64:V86)</f>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="W87" s="17">
         <f>SUM(W64:W86)</f>
-        <v>800</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -8531,7 +8703,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>470</v>
+        <v>630</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>3</v>
@@ -8541,11 +8713,11 @@
       </c>
       <c r="F100" s="20" t="str">
         <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>GSB 3779</v>
+        <v>GBP 8036</v>
       </c>
       <c r="G100" s="21">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>580</v>
+        <v>810</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -8567,7 +8739,7 @@
       </c>
       <c r="C101" s="19">
         <f>J27</f>
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>1</v>
@@ -8577,11 +8749,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G101" s="21">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>740</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -8603,7 +8775,7 @@
       </c>
       <c r="C102" s="19">
         <f>D27</f>
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>0</v>
@@ -8611,12 +8783,13 @@
       <c r="E102" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F102" s="20" t="s">
-        <v>20</v>
+      <c r="F102" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>AAY 0116</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="31" t="s">
@@ -8636,7 +8809,7 @@
       </c>
       <c r="C103" s="19">
         <f>J56</f>
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>21</v>
@@ -8646,11 +8819,11 @@
       </c>
       <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 8036</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>700</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -8671,7 +8844,7 @@
       </c>
       <c r="C104" s="19">
         <f>P56</f>
-        <v>580</v>
+        <v>740</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>22</v>
@@ -8681,11 +8854,11 @@
       </c>
       <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+        <v>POS 0267</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>650</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -8706,7 +8879,7 @@
       </c>
       <c r="C105" s="19">
         <f>P27</f>
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>2</v>
@@ -8716,11 +8889,11 @@
       </c>
       <c r="F105" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>630</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -8751,11 +8924,11 @@
       </c>
       <c r="F106" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>GIR 0872</v>
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -8776,7 +8949,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>560</v>
+        <v>650</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>20</v>
@@ -8786,11 +8959,11 @@
       </c>
       <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -8811,7 +8984,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>31</v>
@@ -8821,11 +8994,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="31" t="s">
@@ -8845,7 +9018,7 @@
       </c>
       <c r="C109" s="19">
         <f>D87</f>
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>30</v>
@@ -8855,11 +9028,11 @@
       </c>
       <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="31" t="s">
@@ -8879,7 +9052,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>32</v>
@@ -8889,11 +9062,11 @@
       </c>
       <c r="F110" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PCS 1771</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="31" t="s">
@@ -8913,7 +9086,7 @@
       </c>
       <c r="C111" s="19">
         <f>V87</f>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>54</v>
@@ -8923,11 +9096,11 @@
       </c>
       <c r="F111" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G111" s="21">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="H111" s="18"/>
       <c r="L111" s="31" t="s">
@@ -8947,7 +9120,7 @@
       </c>
       <c r="C112" s="27">
         <f>AB27</f>
-        <v>490</v>
+        <v>810</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>74</v>
@@ -8957,11 +9130,11 @@
       </c>
       <c r="F112" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
+        <v>PCS 1771</v>
       </c>
       <c r="G112" s="21">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">

--- a/DOC 2024/TURNOS 2024.xlsx
+++ b/DOC 2024/TURNOS 2024.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="189">
   <si>
     <t>PAB 2383</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>AGRIPAC</t>
+  </si>
+  <si>
+    <t>detergente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detergente </t>
   </si>
 </sst>
 </file>
@@ -5827,6 +5833,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="G30:K31"/>
+    <mergeCell ref="M30:Q31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="S56:U56"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="G61:K62"/>
     <mergeCell ref="M61:Q62"/>
@@ -5835,24 +5859,6 @@
     <mergeCell ref="G87:I87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="S87:U87"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="G30:K31"/>
-    <mergeCell ref="M30:Q31"/>
-    <mergeCell ref="S30:W31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5863,8 +5869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G112"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,11 +6295,21 @@
       <c r="K7" s="5">
         <v>160</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
+      <c r="M7" s="2">
+        <v>45332</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>150</v>
+      </c>
       <c r="S7" s="2">
         <v>45331</v>
       </c>
@@ -6354,11 +6370,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="5"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="5"/>
+      <c r="S8" s="2">
+        <v>45332</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="4">
+        <v>160</v>
+      </c>
+      <c r="W8" s="5">
+        <v>170</v>
+      </c>
       <c r="Y8" s="2">
         <v>45331</v>
       </c>
@@ -6406,7 +6432,7 @@
         <v>60</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AB9" s="4">
         <v>140</v>
@@ -6941,11 +6967,11 @@
       <c r="O27" s="34"/>
       <c r="P27" s="16">
         <f>SUM(P4:P26)</f>
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="Q27" s="17">
         <f>SUM(Q4:Q26)</f>
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="S27" s="34" t="s">
         <v>19</v>
@@ -6954,11 +6980,11 @@
       <c r="U27" s="34"/>
       <c r="V27" s="16">
         <f>SUM(V4:V26)</f>
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="W27" s="17">
         <f>SUM(W4:W26)</f>
-        <v>710</v>
+        <v>880</v>
       </c>
       <c r="Y27" s="34" t="s">
         <v>19</v>
@@ -7373,11 +7399,21 @@
       <c r="W37" s="5"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
+      <c r="A38" s="6">
+        <v>45332</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="8">
+        <v>140</v>
+      </c>
+      <c r="E38" s="9">
+        <v>140</v>
+      </c>
       <c r="G38" s="22"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -7777,11 +7813,11 @@
       <c r="C56" s="34"/>
       <c r="D56" s="16">
         <f>SUM(D33:D55)</f>
-        <v>650</v>
+        <v>790</v>
       </c>
       <c r="E56" s="17">
         <f>SUM(E33:E55)</f>
-        <v>650</v>
+        <v>790</v>
       </c>
       <c r="G56" s="34" t="s">
         <v>19</v>
@@ -8199,11 +8235,21 @@
       <c r="E68" s="5">
         <v>90</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="5"/>
+      <c r="G68" s="2">
+        <v>45332</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="4">
+        <v>150</v>
+      </c>
+      <c r="K68" s="5">
+        <v>150</v>
+      </c>
       <c r="M68" s="2">
         <v>45331</v>
       </c>
@@ -8236,21 +8282,41 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
+      <c r="A69" s="6">
+        <v>45332</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="8">
+        <v>140</v>
+      </c>
+      <c r="E69" s="9">
+        <v>140</v>
+      </c>
       <c r="G69" s="11"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
       <c r="K69" s="9"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="9"/>
+      <c r="M69" s="11">
+        <v>45332</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P69" s="8">
+        <v>160</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>160</v>
+      </c>
       <c r="S69" s="11"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
@@ -8639,11 +8705,11 @@
       <c r="C87" s="34"/>
       <c r="D87" s="16">
         <f>SUM(D64:D86)</f>
-        <v>610</v>
+        <v>750</v>
       </c>
       <c r="E87" s="17">
         <f>SUM(E64:E86)</f>
-        <v>810</v>
+        <v>950</v>
       </c>
       <c r="G87" s="34" t="s">
         <v>19</v>
@@ -8652,11 +8718,11 @@
       <c r="I87" s="34"/>
       <c r="J87" s="16">
         <f>SUM(J64:J86)</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K87" s="17">
         <f>SUM(K64:K86)</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M87" s="34" t="s">
         <v>19</v>
@@ -8665,11 +8731,11 @@
       <c r="O87" s="34"/>
       <c r="P87" s="16">
         <f>SUM(P64:P86)</f>
-        <v>700</v>
+        <v>860</v>
       </c>
       <c r="Q87" s="17">
         <f>SUM(Q64:Q86)</f>
-        <v>1100</v>
+        <v>1260</v>
       </c>
       <c r="S87" s="34" t="s">
         <v>19</v>
@@ -8703,7 +8769,7 @@
       </c>
       <c r="C100" s="19">
         <f>V27</f>
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>3</v>
@@ -8713,11 +8779,11 @@
       </c>
       <c r="F100" s="20" t="str">
         <f t="shared" ref="F100:F112" si="0">VLOOKUP(G100,$C$100:$D$112,2,0)</f>
-        <v>GBP 8036</v>
+        <v>AFU 0919</v>
       </c>
       <c r="G100" s="21">
         <f t="shared" ref="G100:G112" si="1">LARGE($C$100:$C$112,A100)</f>
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
@@ -8749,11 +8815,11 @@
       </c>
       <c r="F101" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GSB 3779</v>
+        <v>GBP 8036</v>
       </c>
       <c r="G101" s="21">
         <f t="shared" si="1"/>
-        <v>740</v>
+        <v>810</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -8783,13 +8849,12 @@
       <c r="E102" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F102" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>AAY 0116</v>
+      <c r="F102" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="G102" s="21">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>790</v>
       </c>
       <c r="H102" s="18"/>
       <c r="L102" s="31" t="s">
@@ -8819,11 +8884,11 @@
       </c>
       <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>AFU 0919</v>
+        <v>PTO 0223</v>
       </c>
       <c r="G103" s="21">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="H103" s="18"/>
       <c r="J103" s="18"/>
@@ -8854,11 +8919,11 @@
       </c>
       <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>POS 0267</v>
+        <v>GBP 3078</v>
       </c>
       <c r="G104" s="21">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H104" s="18"/>
       <c r="J104" s="18"/>
@@ -8879,7 +8944,7 @@
       </c>
       <c r="C105" s="19">
         <f>P27</f>
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>2</v>
@@ -8887,13 +8952,12 @@
       <c r="E105" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F105" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>PTO 0223</v>
+      <c r="F105" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="G105" s="21">
         <f t="shared" si="1"/>
-        <v>630</v>
+        <v>750</v>
       </c>
       <c r="H105" s="18"/>
       <c r="J105" s="18"/>
@@ -8924,11 +8988,11 @@
       </c>
       <c r="F106" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GIR 0872</v>
+        <v>GSB 3779</v>
       </c>
       <c r="G106" s="21">
         <f t="shared" si="1"/>
-        <v>610</v>
+        <v>740</v>
       </c>
       <c r="H106" s="18"/>
       <c r="J106" s="18"/>
@@ -8949,7 +9013,7 @@
       </c>
       <c r="C107" s="19">
         <f>D56</f>
-        <v>650</v>
+        <v>790</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>20</v>
@@ -8959,11 +9023,11 @@
       </c>
       <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBP 3078</v>
+        <v>AAY 0116</v>
       </c>
       <c r="G107" s="21">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="H107" s="18"/>
       <c r="J107" s="18"/>
@@ -8984,7 +9048,7 @@
       </c>
       <c r="C108" s="19">
         <f>J87</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>31</v>
@@ -8994,11 +9058,11 @@
       </c>
       <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PZQ 0360</v>
+        <v>GBN 8358</v>
       </c>
       <c r="G108" s="21">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="H108" s="18"/>
       <c r="L108" s="31" t="s">
@@ -9018,7 +9082,7 @@
       </c>
       <c r="C109" s="19">
         <f>D87</f>
-        <v>610</v>
+        <v>750</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>30</v>
@@ -9028,11 +9092,11 @@
       </c>
       <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PAB 2383</v>
+        <v>PZQ 0360</v>
       </c>
       <c r="G109" s="21">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="H109" s="18"/>
       <c r="L109" s="31" t="s">
@@ -9052,7 +9116,7 @@
       </c>
       <c r="C110" s="19">
         <f>P87</f>
-        <v>700</v>
+        <v>860</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>32</v>
@@ -9062,11 +9126,11 @@
       </c>
       <c r="F110" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GLL 0927</v>
+        <v>PAB 2383</v>
       </c>
       <c r="G110" s="21">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="H110" s="18"/>
       <c r="L110" s="31" t="s">
@@ -9096,11 +9160,11 @@
       </c>
       <c r="F111" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>GBN 8358</v>
+        <v>GLL 0927</v>
       </c>
       <c r="G111" s="21">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="H111" s="18"/>
       <c r="L111" s="31" t="s">
@@ -9142,16 +9206,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="S1:W2"/>
-    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="G61:K62"/>
+    <mergeCell ref="M61:Q62"/>
+    <mergeCell ref="S61:W62"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="G30:K31"/>
     <mergeCell ref="M30:Q31"/>
@@ -9160,14 +9222,16 @@
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="S56:U56"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="G61:K62"/>
-    <mergeCell ref="M61:Q62"/>
-    <mergeCell ref="S61:W62"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="S1:W2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Y27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
